--- a/secData2.xlsx
+++ b/secData2.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/my_mac/PycharmProjects/python-optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602A8248-291F-4628-931C-1B37C981B530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88ADB6B-F090-9E48-9028-BE749CEC0735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D481F55A-4EF9-4804-9C01-9BC1232C6DB2}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{D481F55A-4EF9-4804-9C01-9BC1232C6DB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Atable">Sheet1!$A$2:$A$8</definedName>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>A</t>
   </si>
@@ -95,12 +96,15 @@
   <si>
     <t>SG</t>
   </si>
+  <si>
+    <t>X</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,11 +312,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,17 +634,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF68B899-B517-4C06-B6AA-6DDDB06CF28F}">
   <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:28">
+    <row r="1" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -673,7 +677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -711,7 +715,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -747,7 +751,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15.75" thickBot="1">
+    <row r="5" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -781,7 +785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -809,7 +813,7 @@
       <c r="T6" s="9"/>
       <c r="U6" s="6"/>
     </row>
-    <row r="7" spans="1:28" ht="15.75" thickBot="1">
+    <row r="7" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -837,7 +841,7 @@
       <c r="T7" s="9"/>
       <c r="U7" s="6"/>
     </row>
-    <row r="8" spans="1:28" ht="15.75" thickBot="1">
+    <row r="8" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -864,13 +868,13 @@
       <c r="T8" s="16"/>
       <c r="U8" s="8"/>
     </row>
-    <row r="10" spans="1:28" ht="15.75" thickBot="1">
-      <c r="K10" s="17" t="s">
+    <row r="10" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="17"/>
-    </row>
-    <row r="11" spans="1:28" ht="15.75" thickBot="1">
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K11" s="3" t="s">
         <v>0</v>
       </c>
@@ -910,8 +914,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
-      <c r="E12" s="18" t="s">
+    <row r="12" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="E12" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="15" t="s">
@@ -965,7 +969,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E13" s="5">
         <v>1</v>
       </c>
@@ -1020,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E14" s="5">
         <v>1</v>
       </c>
@@ -1075,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E15" s="5">
         <v>1</v>
       </c>
@@ -1130,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E16" s="5">
         <v>2</v>
       </c>
@@ -1185,7 +1189,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="5:28" ht="15.75" thickBot="1">
+    <row r="17" spans="5:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E17" s="5">
         <v>2</v>
       </c>
@@ -1240,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:28">
+    <row r="18" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E18" s="5">
         <v>2</v>
       </c>
@@ -1253,7 +1257,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="5:28">
+    <row r="19" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E19" s="5">
         <v>2</v>
       </c>
@@ -1266,7 +1270,7 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="5:28">
+    <row r="20" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E20" s="5">
         <v>2</v>
       </c>
@@ -1279,7 +1283,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="5:28">
+    <row r="21" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E21" s="5">
         <v>3</v>
       </c>
@@ -1292,7 +1296,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="5:28">
+    <row r="22" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E22" s="5">
         <v>3</v>
       </c>
@@ -1305,7 +1309,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="5:28">
+    <row r="23" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E23" s="5">
         <v>3</v>
       </c>
@@ -1318,7 +1322,7 @@
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="5:28">
+    <row r="24" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E24" s="5">
         <v>4</v>
       </c>
@@ -1331,7 +1335,7 @@
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="5:28">
+    <row r="25" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E25" s="5">
         <v>4</v>
       </c>
@@ -1344,7 +1348,7 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" spans="5:28">
+    <row r="26" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E26" s="5">
         <v>4</v>
       </c>
@@ -1357,7 +1361,7 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="5:28">
+    <row r="27" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E27" s="5">
         <v>5</v>
       </c>
@@ -1370,7 +1374,7 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
     </row>
-    <row r="28" spans="5:28">
+    <row r="28" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E28" s="5">
         <v>5</v>
       </c>
@@ -1383,7 +1387,7 @@
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
     </row>
-    <row r="29" spans="5:28">
+    <row r="29" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E29" s="5">
         <v>5</v>
       </c>
@@ -1396,7 +1400,7 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
     </row>
-    <row r="30" spans="5:28">
+    <row r="30" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E30" s="5">
         <v>5</v>
       </c>
@@ -1409,7 +1413,7 @@
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
     </row>
-    <row r="31" spans="5:28">
+    <row r="31" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E31" s="5">
         <v>5</v>
       </c>
@@ -1422,7 +1426,7 @@
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
     </row>
-    <row r="32" spans="5:28">
+    <row r="32" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E32" s="5">
         <v>6</v>
       </c>
@@ -1435,7 +1439,7 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
     </row>
-    <row r="33" spans="5:14">
+    <row r="33" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E33" s="5">
         <v>6</v>
       </c>
@@ -1448,7 +1452,7 @@
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
     </row>
-    <row r="34" spans="5:14">
+    <row r="34" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E34" s="5">
         <v>6</v>
       </c>
@@ -1461,7 +1465,7 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
     </row>
-    <row r="35" spans="5:14">
+    <row r="35" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E35" s="5">
         <v>1</v>
       </c>
@@ -1474,7 +1478,7 @@
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
     </row>
-    <row r="36" spans="5:14">
+    <row r="36" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E36" s="5">
         <v>2</v>
       </c>
@@ -1487,7 +1491,7 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
     </row>
-    <row r="37" spans="5:14">
+    <row r="37" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E37" s="5">
         <v>3</v>
       </c>
@@ -1500,7 +1504,7 @@
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
     </row>
-    <row r="38" spans="5:14">
+    <row r="38" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E38" s="5">
         <v>4</v>
       </c>
@@ -1513,7 +1517,7 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
     </row>
-    <row r="39" spans="5:14">
+    <row r="39" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E39" s="5">
         <v>5</v>
       </c>
@@ -1526,7 +1530,7 @@
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
     </row>
-    <row r="40" spans="5:14" ht="15.75" thickBot="1">
+    <row r="40" spans="5:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E40" s="7">
         <v>6</v>
       </c>
@@ -1539,28 +1543,28 @@
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
     </row>
-    <row r="41" spans="5:14">
+    <row r="41" spans="5:14" x14ac:dyDescent="0.2">
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
     </row>
-    <row r="42" spans="5:14">
+    <row r="42" spans="5:14" x14ac:dyDescent="0.2">
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
     </row>
-    <row r="43" spans="5:14">
+    <row r="43" spans="5:14" x14ac:dyDescent="0.2">
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
     </row>
-    <row r="44" spans="5:14">
+    <row r="44" spans="5:14" x14ac:dyDescent="0.2">
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
@@ -1576,6 +1580,128 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0230BEE9-3A29-384E-B52B-41AFA4A64EB2}">
+  <dimension ref="E1:M5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.1</v>
+      </c>
+      <c r="H3">
+        <v>0.1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.05</v>
+      </c>
+      <c r="M3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0.05</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>0.1</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>0.05</v>
+      </c>
+      <c r="L5">
+        <v>0.05</v>
+      </c>
+      <c r="M5">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A83701-554A-49EA-BEFF-31A40D4F0692}">
   <dimension ref="A1:E42"/>
   <sheetViews>
@@ -1583,9 +1709,9 @@
       <selection sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1602,7 +1728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1619,7 +1745,7 @@
         <v>-1.9999999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1636,7 +1762,7 @@
         <v>-1.1764705882352939</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1653,7 +1779,7 @@
         <v>-0.82987551867219922</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1670,7 +1796,7 @@
         <v>-1.9999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1687,7 +1813,7 @@
         <v>-0.76923076923076927</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1704,7 +1830,7 @@
         <v>-3.9999999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1721,7 +1847,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1738,7 +1864,7 @@
         <v>-1.5590200445434297</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -1755,7 +1881,7 @@
         <v>-0.76923076923076927</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -1772,7 +1898,7 @@
         <v>-1.4634146341463414</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1789,7 +1915,7 @@
         <v>-1.9230769230769229</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -1806,7 +1932,7 @@
         <v>-1.1764705882352939</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -1823,7 +1949,7 @@
         <v>-3.9999999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -1840,7 +1966,7 @@
         <v>-0.99999999999999989</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -1857,7 +1983,7 @@
         <v>-0.82987551867219922</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -1874,7 +2000,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -1891,7 +2017,7 @@
         <v>-1.4634146341463414</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -1908,7 +2034,7 @@
         <v>-0.99999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -1925,7 +2051,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>6</v>
       </c>
@@ -1942,7 +2068,7 @@
         <v>-1.5590200445434297</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -1959,7 +2085,7 @@
         <v>-3.9999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -1976,97 +2102,97 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="D42" s="1"/>
@@ -2076,7 +2202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12085287-E26D-4764-BEF2-2C7950091382}">
   <dimension ref="A1:K45"/>
   <sheetViews>
@@ -2084,9 +2210,9 @@
       <selection activeCell="H2" sqref="H2:H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -2112,7 +2238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2151,7 +2277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2190,7 +2316,7 @@
         <v>4.7058823529411802</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2229,7 +2355,7 @@
         <v>3.11203319502075</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2268,7 +2394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -2307,7 +2433,7 @@
         <v>3.8461538461538498</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -2346,7 +2472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -2385,7 +2511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -2424,7 +2550,7 @@
         <v>4.4543429844098004</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -2463,7 +2589,7 @@
         <v>3.8461538461538498</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -2502,7 +2628,7 @@
         <v>3.1707317073170702</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -2541,7 +2667,7 @@
         <v>9.6153846153846096</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -2580,7 +2706,7 @@
         <v>4.7058823529411802</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -2619,7 +2745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -2658,7 +2784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -2697,7 +2823,7 @@
         <v>3.11203319502075</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -2736,7 +2862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -2775,7 +2901,7 @@
         <v>3.1707317073170702</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -2814,7 +2940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -2853,7 +2979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>6</v>
       </c>
@@ -2892,7 +3018,7 @@
         <v>4.4543429844098004</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -2931,7 +3057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -2970,148 +3096,148 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
@@ -3121,21 +3247,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA6FEDBE726A3D4BB6A3DD1FC423C645" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5b46a3744ab63b46ac8390338c0ec29">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e1685e70-4409-44ff-a129-d9557ed9b25b" xmlns:ns4="dd78913b-84cb-4e23-9d1e-766268695023" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="101e21a860029da8357ea7a2996377f6" ns3:_="" ns4:_="">
     <xsd:import namespace="e1685e70-4409-44ff-a129-d9557ed9b25b"/>
@@ -3346,32 +3457,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F22E367B-3987-45E2-9C94-F1D93CDCEDA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="e1685e70-4409-44ff-a129-d9557ed9b25b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="dd78913b-84cb-4e23-9d1e-766268695023"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC684770-FBB1-48C7-813E-0130852B6127}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5295C7A2-8A6E-4C6B-A9EC-7FF17D31CF74}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3388,4 +3489,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC684770-FBB1-48C7-813E-0130852B6127}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F22E367B-3987-45E2-9C94-F1D93CDCEDA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="e1685e70-4409-44ff-a129-d9557ed9b25b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="dd78913b-84cb-4e23-9d1e-766268695023"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/secData2.xlsx
+++ b/secData2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/my_mac/PycharmProjects/python-optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88ADB6B-F090-9E48-9028-BE749CEC0735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF976A1C-21C8-9E48-A376-138DC15F9D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{D481F55A-4EF9-4804-9C01-9BC1232C6DB2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{D481F55A-4EF9-4804-9C01-9BC1232C6DB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>A</t>
   </si>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>1/w</t>
+  </si>
+  <si>
+    <t>eksi1/2piwl</t>
   </si>
 </sst>
 </file>
@@ -1581,15 +1593,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0230BEE9-3A29-384E-B52B-41AFA4A64EB2}">
-  <dimension ref="E1:M5"/>
+  <dimension ref="E1:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="O73" sqref="O73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="5:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E1" t="s">
         <v>8</v>
       </c>
@@ -1597,7 +1609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="5:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="5:17" x14ac:dyDescent="0.2">
       <c r="F2">
         <v>1</v>
       </c>
@@ -1617,7 +1629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="5:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E3">
         <v>1</v>
       </c>
@@ -1643,7 +1655,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="5:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E4">
         <v>2</v>
       </c>
@@ -1669,7 +1681,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="5:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E5">
         <v>3</v>
       </c>
@@ -1692,7 +1704,1746 @@
         <v>0.05</v>
       </c>
       <c r="M5">
-        <v>0.05</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F8" t="e">
+        <f>F3/(F3^2+K3^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:H10" si="0">G3/(G3^2+L3^2)</f>
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="J8" t="e">
+        <f>-K3/(F3^2+K3^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8">
+        <f>-L3/(G3^2+L3^2)</f>
+        <v>-3.9999999999999996</v>
+      </c>
+      <c r="L8">
+        <f>-M3/(H3^2+M3^2)</f>
+        <v>-3.9999999999999996</v>
+      </c>
+      <c r="M8" t="e">
+        <f t="shared" ref="K8:M10" si="1">-N3/(I3^2+N3^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8">
+        <v>0.05</v>
+      </c>
+      <c r="P8">
+        <v>-4</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <f t="shared" ref="F9:F10" si="2">F4/(F4^2+K4^2)</f>
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="G9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:J10" si="3">-K4/(F4^2+K4^2)</f>
+        <v>-3.9999999999999996</v>
+      </c>
+      <c r="K9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>-3.9999999999999996</v>
+      </c>
+      <c r="M9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O9">
+        <v>0.1</v>
+      </c>
+      <c r="P9">
+        <v>-5</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="H10" t="e">
+        <f>H5/(H5^2+M5^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>-3.9999999999999996</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>-3.9999999999999996</v>
+      </c>
+      <c r="L10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10">
+        <v>0.2</v>
+      </c>
+      <c r="P10">
+        <v>-4</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <v>0.4</v>
+      </c>
+      <c r="P11">
+        <v>-2.355</v>
+      </c>
+      <c r="Q11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <v>0.8</v>
+      </c>
+      <c r="P12">
+        <v>-1.23</v>
+      </c>
+      <c r="Q12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="O13">
+        <v>1.6</v>
+      </c>
+      <c r="P13">
+        <v>-0.622</v>
+      </c>
+      <c r="Q13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>0.05</v>
+      </c>
+      <c r="J17">
+        <f>-(K17*I17)/($G$3^2+(I17*K17)^2)</f>
+        <v>-3.9999999999999996</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <f>-1/(2*PI()*I17*K17)</f>
+        <v>-3.183098861837907</v>
+      </c>
+    </row>
+    <row r="18" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>0.05</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:J64" si="4">-(K18*I18)/($G$3^2+(I18*K18)^2)</f>
+        <v>-4.2226487523992322</v>
+      </c>
+      <c r="K18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L18">
+        <f>J17/J18</f>
+        <v>0.94727272727272716</v>
+      </c>
+      <c r="M18">
+        <f>1/K18</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="N18">
+        <f>-1/(2*PI()*I18*K18)</f>
+        <v>-2.8937262380344606</v>
+      </c>
+    </row>
+    <row r="19" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>0.05</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>-4.4117647058823524</v>
+      </c>
+      <c r="K19">
+        <v>1.2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ref="L19:L72" si="5">J18/J19</f>
+        <v>0.95713371721049278</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19:M72" si="6">1/K19</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ref="N18:N72" si="7">-1/(2*PI()*I19*K19)</f>
+        <v>-2.6525823848649224</v>
+      </c>
+    </row>
+    <row r="20" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>0.05</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>-4.5694200351493848</v>
+      </c>
+      <c r="K20">
+        <v>1.3</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="5"/>
+        <v>0.96549773755656099</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="6"/>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="7"/>
+        <v>-2.4485375860291589</v>
+      </c>
+    </row>
+    <row r="21" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>0.05</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>-4.6979865771812079</v>
+      </c>
+      <c r="K21">
+        <v>1.4</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="5"/>
+        <v>0.97263369319608339</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="6"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="7"/>
+        <v>-2.2736420441699337</v>
+      </c>
+    </row>
+    <row r="22" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>0.05</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>-4.8</v>
+      </c>
+      <c r="K22">
+        <v>1.5</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="5"/>
+        <v>0.97874720357941836</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="7"/>
+        <v>-2.1220659078919377</v>
+      </c>
+    </row>
+    <row r="23" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>0.05</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>-4.8780487804878048</v>
+      </c>
+      <c r="K23">
+        <v>1.6</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="5"/>
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="6"/>
+        <v>0.625</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="7"/>
+        <v>-1.9894367886486917</v>
+      </c>
+    </row>
+    <row r="24" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>0.05</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>-4.9346879535558772</v>
+      </c>
+      <c r="K24">
+        <v>1.7</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="5"/>
+        <v>0.98852223816355822</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="6"/>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="7"/>
+        <v>-1.8724110951987689</v>
+      </c>
+    </row>
+    <row r="25" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>0.05</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>-4.9723756906077341</v>
+      </c>
+      <c r="K25">
+        <v>1.8</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="5"/>
+        <v>0.99242057732623767</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="6"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="7"/>
+        <v>-1.7683882565766149</v>
+      </c>
+    </row>
+    <row r="26" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>0.05</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>-4.9934296977660972</v>
+      </c>
+      <c r="K26">
+        <v>1.9</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="5"/>
+        <v>0.99578365804012781</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="6"/>
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="7"/>
+        <v>-1.6753151904410037</v>
+      </c>
+    </row>
+    <row r="27" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>0.05</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>-4.9947045671473953</v>
+      </c>
+      <c r="K27">
+        <v>1.91</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="5"/>
+        <v>0.9997447557980339</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="6"/>
+        <v>0.52356020942408377</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="7"/>
+        <v>-1.6665439067214172</v>
+      </c>
+    </row>
+    <row r="28" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>0.05</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>-4.9958368026644457</v>
+      </c>
+      <c r="K28">
+        <v>1.92</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="5"/>
+        <v>0.99977336419067042</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="6"/>
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="7"/>
+        <v>-1.6578639905405765</v>
+      </c>
+    </row>
+    <row r="29" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>0.05</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>-4.9968284379085803</v>
+      </c>
+      <c r="K29">
+        <v>1.93</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="5"/>
+        <v>0.99980154707001512</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="6"/>
+        <v>0.5181347150259068</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="7"/>
+        <v>-1.6492740216776718</v>
+      </c>
+    </row>
+    <row r="30" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>0.05</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>-4.9976814879694977</v>
+      </c>
+      <c r="K30">
+        <v>1.94</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="5"/>
+        <v>0.99982931083884174</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="6"/>
+        <v>0.51546391752577325</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="7"/>
+        <v>-1.6407726091947974</v>
+      </c>
+    </row>
+    <row r="31" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>0.05</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>-4.9983979493751995</v>
+      </c>
+      <c r="K31">
+        <v>1.95</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="5"/>
+        <v>0.9998566617918464</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="6"/>
+        <v>0.51282051282051289</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="7"/>
+        <v>-1.6323583906861061</v>
+      </c>
+    </row>
+    <row r="32" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>0.05</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>-4.9989798000408072</v>
+      </c>
+      <c r="K32">
+        <v>1.96</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="5"/>
+        <v>0.99988360611787175</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="6"/>
+        <v>0.51020408163265307</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="7"/>
+        <v>-1.6240300315499525</v>
+      </c>
+    </row>
+    <row r="33" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>0.05</v>
+      </c>
+      <c r="J33">
+        <f>-(K33*I33)/($G$3^2+(I33*K33)^2)</f>
+        <v>-4.9994289992259757</v>
+      </c>
+      <c r="K33">
+        <v>1.97</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="5"/>
+        <v>0.99991014990207117</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="6"/>
+        <v>0.50761421319796951</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="7"/>
+        <v>-1.6157862242832013</v>
+      </c>
+    </row>
+    <row r="34" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>0.05</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>-4.9997474875006311</v>
+      </c>
+      <c r="K34">
+        <v>1.98</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="5"/>
+        <v>0.99993629912801563</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="6"/>
+        <v>0.50505050505050508</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="7"/>
+        <v>-1.6076256877969228</v>
+      </c>
+    </row>
+    <row r="35" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>0.05</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>-4.9999371867187596</v>
+      </c>
+      <c r="K35">
+        <v>1.99</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="5"/>
+        <v>0.99996205967974305</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="6"/>
+        <v>0.50251256281407031</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="7"/>
+        <v>-1.599547166752717</v>
+      </c>
+    </row>
+    <row r="36" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <v>0.05</v>
+      </c>
+      <c r="J36">
+        <f>-(K36*I36)/($G$3^2+(I36*K36)^2)</f>
+        <v>-4.9999999999999991</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <f>J35/J36</f>
+        <v>0.99998743734375206</v>
+      </c>
+      <c r="M36">
+        <f>1/K36</f>
+        <v>0.5</v>
+      </c>
+      <c r="N36">
+        <f>-1/(2*PI()*I36*K36)</f>
+        <v>-1.5915494309189535</v>
+      </c>
+    </row>
+    <row r="37" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <v>0.05</v>
+      </c>
+      <c r="J37">
+        <f>-(K37*I37)/($G$3^2+(I37*K37)^2)</f>
+        <v>-4.9940546967895365</v>
+      </c>
+      <c r="K37">
+        <v>2.1</v>
+      </c>
+      <c r="L37">
+        <f t="shared" ref="L37:L81" si="8">J36/J37</f>
+        <v>1.001190476190476</v>
+      </c>
+      <c r="M37">
+        <f t="shared" ref="M37:M81" si="9">1/K37</f>
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="N37">
+        <f>-1/(2*PI()*I37*K37)</f>
+        <v>-1.5157613627799555</v>
+      </c>
+    </row>
+    <row r="38" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <v>0.05</v>
+      </c>
+      <c r="J38">
+        <f>-(K38*I38)/($G$3^2+(I38*K38)^2)</f>
+        <v>-4.9773755656108589</v>
+      </c>
+      <c r="K38">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="8"/>
+        <v>1.0033509890822616</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="9"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="N38">
+        <f>-1/(2*PI()*I38*K38)</f>
+        <v>-1.4468631190172303</v>
+      </c>
+    </row>
+    <row r="39" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <v>0.05</v>
+      </c>
+      <c r="J39">
+        <f>-(K39*I39)/($G$3^2+(I39*K39)^2)</f>
+        <v>-4.9515608180839612</v>
+      </c>
+      <c r="K39">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="8"/>
+        <v>1.0052134566201061</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="9"/>
+        <v>0.43478260869565222</v>
+      </c>
+      <c r="N39">
+        <f>-1/(2*PI()*I39*K39)</f>
+        <v>-1.3839560268860467</v>
+      </c>
+    </row>
+    <row r="40" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <v>0.05</v>
+      </c>
+      <c r="J40">
+        <f>-(K40*I40)/($G$3^2+(I40*K40)^2)</f>
+        <v>-4.9180327868852451</v>
+      </c>
+      <c r="K40">
+        <v>2.4</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="8"/>
+        <v>1.006817366343739</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="9"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N40">
+        <f>-1/(2*PI()*I40*K40)</f>
+        <v>-1.3262911924324612</v>
+      </c>
+    </row>
+    <row r="41" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <v>0.05</v>
+      </c>
+      <c r="J41">
+        <f>-(K41*I41)/($G$3^2+(I41*K41)^2)</f>
+        <v>-4.8780487804878048</v>
+      </c>
+      <c r="K41">
+        <v>2.5</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="8"/>
+        <v>1.0081967213114753</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="9"/>
+        <v>0.4</v>
+      </c>
+      <c r="N41">
+        <f>-1/(2*PI()*I41*K41)</f>
+        <v>-1.2732395447351628</v>
+      </c>
+    </row>
+    <row r="42" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <v>0.05</v>
+      </c>
+      <c r="J42">
+        <f>-(K42*I42)/($G$3^2+(I42*K42)^2)</f>
+        <v>-4.8327137546468393</v>
+      </c>
+      <c r="K42">
+        <v>2.6</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="8"/>
+        <v>1.0093808630393999</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="9"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="N42">
+        <f>-1/(2*PI()*I42*K42)</f>
+        <v>-1.2242687930145795</v>
+      </c>
+    </row>
+    <row r="43" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <v>0.05</v>
+      </c>
+      <c r="J43">
+        <f>-(K43*I43)/($G$3^2+(I43*K43)^2)</f>
+        <v>-4.7829937998228518</v>
+      </c>
+      <c r="K43">
+        <v>2.7</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="8"/>
+        <v>1.0103951535178299</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="9"/>
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="N43">
+        <f>-1/(2*PI()*I43*K43)</f>
+        <v>-1.1789255043844098</v>
+      </c>
+    </row>
+    <row r="44" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <v>0.05</v>
+      </c>
+      <c r="J44">
+        <f>-(K44*I44)/($G$3^2+(I44*K44)^2)</f>
+        <v>-4.7297297297297298</v>
+      </c>
+      <c r="K44">
+        <v>2.8</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="8"/>
+        <v>1.0112615462482601</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="9"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="N44">
+        <f>-1/(2*PI()*I44*K44)</f>
+        <v>-1.1368210220849668</v>
+      </c>
+    </row>
+    <row r="45" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <v>0.05</v>
+      </c>
+      <c r="J45">
+        <f>-(K45*I45)/($G$3^2+(I45*K45)^2)</f>
+        <v>-4.6736502820306205</v>
+      </c>
+      <c r="K45">
+        <v>2.9</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="8"/>
+        <v>1.0119990680335509</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="9"/>
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="N45">
+        <f>-1/(2*PI()*I45*K45)</f>
+        <v>-1.0976202971854851</v>
+      </c>
+    </row>
+    <row r="46" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <v>0.05</v>
+      </c>
+      <c r="J46">
+        <f>-(K46*I46)/($G$3^2+(I46*K46)^2)</f>
+        <v>-4.615384615384615</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="8"/>
+        <v>1.0126242277733013</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="9"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N46">
+        <f>-1/(2*PI()*I46*K46)</f>
+        <v>-1.0610329539459689</v>
+      </c>
+    </row>
+    <row r="47" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <v>0.05</v>
+      </c>
+      <c r="J47">
+        <f>-(K47*I47)/($G$3^2+(I47*K47)^2)</f>
+        <v>-4.5554739162380589</v>
+      </c>
+      <c r="K47">
+        <v>3.1</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="8"/>
+        <v>1.0131513647642683</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="9"/>
+        <v>0.32258064516129031</v>
+      </c>
+      <c r="N47">
+        <f>-1/(2*PI()*I47*K47)</f>
+        <v>-1.0268060844638409</v>
+      </c>
+    </row>
+    <row r="48" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <v>0.05</v>
+      </c>
+      <c r="J48">
+        <f>-(K48*I48)/($G$3^2+(I48*K48)^2)</f>
+        <v>-4.4943820224719095</v>
+      </c>
+      <c r="K48">
+        <v>3.2</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="8"/>
+        <v>1.0135929463629683</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="9"/>
+        <v>0.3125</v>
+      </c>
+      <c r="N48">
+        <f>-1/(2*PI()*I48*K48)</f>
+        <v>-0.99471839432434583</v>
+      </c>
+    </row>
+    <row r="49" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <v>0.05</v>
+      </c>
+      <c r="J49">
+        <f>-(K49*I49)/($G$3^2+(I49*K49)^2)</f>
+        <v>-4.4325050369375409</v>
+      </c>
+      <c r="K49">
+        <v>3.3</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="8"/>
+        <v>1.0139598229485871</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="9"/>
+        <v>0.30303030303030304</v>
+      </c>
+      <c r="N49">
+        <f>-1/(2*PI()*I49*K49)</f>
+        <v>-0.96457541267815372</v>
+      </c>
+    </row>
+    <row r="50" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <v>0.05</v>
+      </c>
+      <c r="J50">
+        <f>-(K50*I50)/($G$3^2+(I50*K50)^2)</f>
+        <v>-4.3701799485861184</v>
+      </c>
+      <c r="K50">
+        <v>3.4</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="8"/>
+        <v>1.0142614466874726</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="9"/>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="N50">
+        <f>-1/(2*PI()*I50*K50)</f>
+        <v>-0.93620554759938446</v>
+      </c>
+    </row>
+    <row r="51" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <v>0.05</v>
+      </c>
+      <c r="J51">
+        <f>-(K51*I51)/($G$3^2+(I51*K51)^2)</f>
+        <v>-4.3076923076923075</v>
+      </c>
+      <c r="K51">
+        <v>3.5</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="8"/>
+        <v>1.014506059493206</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="9"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="N51">
+        <f>-1/(2*PI()*I51*K51)</f>
+        <v>-0.90945681766797337</v>
+      </c>
+    </row>
+    <row r="52" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <v>0.05</v>
+      </c>
+      <c r="J52">
+        <f>-(K52*I52)/($G$3^2+(I52*K52)^2)</f>
+        <v>-4.2452830188679247</v>
+      </c>
+      <c r="K52">
+        <v>3.6</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="8"/>
+        <v>1.0147008547008547</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="9"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="N52">
+        <f>-1/(2*PI()*I52*K52)</f>
+        <v>-0.88419412828830746</v>
+      </c>
+    </row>
+    <row r="53" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <v>0.05</v>
+      </c>
+      <c r="J53">
+        <f>-(K53*I53)/($G$3^2+(I53*K53)^2)</f>
+        <v>-4.1831543244771048</v>
+      </c>
+      <c r="K53">
+        <v>3.7</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="8"/>
+        <v>1.0148521162672108</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="9"/>
+        <v>0.27027027027027023</v>
+      </c>
+      <c r="N53">
+        <f>-1/(2*PI()*I53*K53)</f>
+        <v>-0.86029698968592072</v>
+      </c>
+    </row>
+    <row r="54" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <v>0.05</v>
+      </c>
+      <c r="J54">
+        <f>-(K54*I54)/($G$3^2+(I54*K54)^2)</f>
+        <v>-4.1214750542299345</v>
+      </c>
+      <c r="K54">
+        <v>3.8</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="8"/>
+        <v>1.0149653387283923</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="9"/>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="N54">
+        <f>-1/(2*PI()*I54*K54)</f>
+        <v>-0.83765759522050187</v>
+      </c>
+    </row>
+    <row r="55" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <v>0.05</v>
+      </c>
+      <c r="J55">
+        <f>-(K55*I55)/($G$3^2+(I55*K55)^2)</f>
+        <v>-4.0603852160333158</v>
+      </c>
+      <c r="K55">
+        <v>3.9</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="8"/>
+        <v>1.0150453306635518</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="9"/>
+        <v>0.25641025641025644</v>
+      </c>
+      <c r="N55">
+        <f>-1/(2*PI()*I55*K55)</f>
+        <v>-0.81617919534305305</v>
+      </c>
+    </row>
+    <row r="56" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <v>0.05</v>
+      </c>
+      <c r="J56">
+        <f>-(K56*I56)/($G$3^2+(I56*K56)^2)</f>
+        <v>-3.9999999999999996</v>
+      </c>
+      <c r="K56">
+        <v>4</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="8"/>
+        <v>1.0150963040083292</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="9"/>
+        <v>0.25</v>
+      </c>
+      <c r="N56">
+        <f>-1/(2*PI()*I56*K56)</f>
+        <v>-0.79577471545947676</v>
+      </c>
+    </row>
+    <row r="57" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <v>0.05</v>
+      </c>
+      <c r="J57">
+        <f>-(K57*I57)/($G$3^2+(I57*K57)^2)</f>
+        <v>-3.9404132628543969</v>
+      </c>
+      <c r="K57">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="8"/>
+        <v>1.0151219512195122</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="9"/>
+        <v>0.24390243902439027</v>
+      </c>
+      <c r="N57">
+        <f>-1/(2*PI()*I57*K57)</f>
+        <v>-0.77636557605802614</v>
+      </c>
+    </row>
+    <row r="58" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <v>0.05</v>
+      </c>
+      <c r="J58">
+        <f>-(K58*I58)/($G$3^2+(I58*K58)^2)</f>
+        <v>-3.8817005545286505</v>
+      </c>
+      <c r="K58">
+        <v>4.2</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="8"/>
+        <v>1.0151255120020137</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="9"/>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="N58">
+        <f>-1/(2*PI()*I58*K58)</f>
+        <v>-0.75788068138997777</v>
+      </c>
+    </row>
+    <row r="59" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <v>0.05</v>
+      </c>
+      <c r="J59">
+        <f>-(K59*I59)/($G$3^2+(I59*K59)^2)</f>
+        <v>-3.8239217429968875</v>
+      </c>
+      <c r="K59">
+        <v>4.3</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="8"/>
+        <v>1.0151098310622018</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="9"/>
+        <v>0.23255813953488372</v>
+      </c>
+      <c r="N59">
+        <f>-1/(2*PI()*I59*K59)</f>
+        <v>-0.74025554926462955</v>
+      </c>
+    </row>
+    <row r="60" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <v>0.05</v>
+      </c>
+      <c r="J60">
+        <f>-(K60*I60)/($G$3^2+(I60*K60)^2)</f>
+        <v>-3.7671232876712324</v>
+      </c>
+      <c r="K60">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="8"/>
+        <v>1.0150774081409921</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="9"/>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="N60">
+        <f>-1/(2*PI()*I60*K60)</f>
+        <v>-0.72343155950861515</v>
+      </c>
+    </row>
+    <row r="61" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <v>0.05</v>
+      </c>
+      <c r="J61">
+        <f>-(K61*I61)/($G$3^2+(I61*K61)^2)</f>
+        <v>-3.7113402061855667</v>
+      </c>
+      <c r="K61">
+        <v>4.5</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="8"/>
+        <v>1.0150304414003044</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="9"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="N61">
+        <f>-1/(2*PI()*I61*K61)</f>
+        <v>-0.70735530263064594</v>
+      </c>
+    </row>
+    <row r="62" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <v>0.05</v>
+      </c>
+      <c r="J62">
+        <f>-(K62*I62)/($G$3^2+(I62*K62)^2)</f>
+        <v>-3.6565977742448337</v>
+      </c>
+      <c r="K62">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="8"/>
+        <v>1.0149708650829221</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="9"/>
+        <v>0.21739130434782611</v>
+      </c>
+      <c r="N62">
+        <f>-1/(2*PI()*I62*K62)</f>
+        <v>-0.69197801344302334</v>
+      </c>
+    </row>
+    <row r="63" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <v>0.05</v>
+      </c>
+      <c r="J63">
+        <f>-(K63*I63)/($G$3^2+(I63*K63)^2)</f>
+        <v>-3.6029129934840936</v>
+      </c>
+      <c r="K63">
+        <v>4.7</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="8"/>
+        <v>1.0149003822345501</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="9"/>
+        <v>0.21276595744680851</v>
+      </c>
+      <c r="N63">
+        <f>-1/(2*PI()*I63*K63)</f>
+        <v>-0.67725507698678866</v>
+      </c>
+    </row>
+    <row r="64" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <v>0.05</v>
+      </c>
+      <c r="J64">
+        <f>-(K64*I64)/($G$3^2+(I64*K64)^2)</f>
+        <v>-3.550295857988166</v>
+      </c>
+      <c r="K64">
+        <v>4.8</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="8"/>
+        <v>1.0148204931646863</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="9"/>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="N64">
+        <f>-1/(2*PI()*I64*K64)</f>
+        <v>-0.66314559621623059</v>
+      </c>
+    </row>
+    <row r="65" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <v>0.05</v>
+      </c>
+      <c r="J65">
+        <f>-(K65*I65)/($G$3^2+(I65*K65)^2)</f>
+        <v>-3.4987504462691899</v>
+      </c>
+      <c r="K65">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="8"/>
+        <v>1.0147325202270256</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="9"/>
+        <v>0.2040816326530612</v>
+      </c>
+      <c r="N65">
+        <f>-1/(2*PI()*I65*K65)</f>
+        <v>-0.64961201261998092</v>
+      </c>
+    </row>
+    <row r="66" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <v>0.05</v>
+      </c>
+      <c r="J66">
+        <f>-(K66*I66)/($G$3^2+(I66*K66)^2)</f>
+        <v>-3.4482758620689653</v>
+      </c>
+      <c r="K66">
+        <v>5</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="8"/>
+        <v>1.014637629418065</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="N66">
+        <f>-1/(2*PI()*I66*K66)</f>
+        <v>-0.63661977236758138</v>
+      </c>
+    </row>
+    <row r="67" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <v>0.05</v>
+      </c>
+      <c r="J67">
+        <f>-(K67*I67)/($G$3^2+(I67*K67)^2)</f>
+        <v>-3.39886704431856</v>
+      </c>
+      <c r="K67">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="8"/>
+        <v>1.0145368492224476</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="9"/>
+        <v>0.19607843137254904</v>
+      </c>
+      <c r="N67">
+        <f>-1/(2*PI()*I67*K67)</f>
+        <v>-0.62413703173292301</v>
+      </c>
+    </row>
+    <row r="68" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <v>0.05</v>
+      </c>
+      <c r="J68">
+        <f>-(K68*I68)/($G$3^2+(I68*K68)^2)</f>
+        <v>-3.3505154639175259</v>
+      </c>
+      <c r="K68">
+        <v>5.2</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="8"/>
+        <v>1.0144310870735394</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="9"/>
+        <v>0.19230769230769229</v>
+      </c>
+      <c r="N68">
+        <f>-1/(2*PI()*I68*K68)</f>
+        <v>-0.61213439650728974</v>
+      </c>
+    </row>
+    <row r="69" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <v>0.05</v>
+      </c>
+      <c r="J69">
+        <f>-(K69*I69)/($G$3^2+(I69*K69)^2)</f>
+        <v>-3.3032097226550321</v>
+      </c>
+      <c r="K69">
+        <v>5.3</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="8"/>
+        <v>1.0143211437463531</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="9"/>
+        <v>0.18867924528301888</v>
+      </c>
+      <c r="N69">
+        <f>-1/(2*PI()*I69*K69)</f>
+        <v>-0.60058469091281264</v>
+      </c>
+    </row>
+    <row r="70" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <v>0.05</v>
+      </c>
+      <c r="J70">
+        <f>-(K70*I70)/($G$3^2+(I70*K70)^2)</f>
+        <v>-3.2569360675512669</v>
+      </c>
+      <c r="K70">
+        <v>5.4</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="8"/>
+        <v>1.0142077259559339</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="9"/>
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="N70">
+        <f>-1/(2*PI()*I70*K70)</f>
+        <v>-0.5894627521922049</v>
+      </c>
+    </row>
+    <row r="71" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <v>0.05</v>
+      </c>
+      <c r="J71">
+        <f>-(K71*I71)/($G$3^2+(I71*K71)^2)</f>
+        <v>-3.2116788321167884</v>
+      </c>
+      <c r="K71">
+        <v>5.5</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="8"/>
+        <v>1.0140914573966444</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="9"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="N71">
+        <f>-1/(2*PI()*I71*K71)</f>
+        <v>-0.57874524760689217</v>
+      </c>
+    </row>
+    <row r="72" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <v>0.05</v>
+      </c>
+      <c r="J72">
+        <f>-(K72*I72)/($G$3^2+(I72*K72)^2)</f>
+        <v>-3.1674208144796383</v>
+      </c>
+      <c r="K72">
+        <v>5.6</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="8"/>
+        <v>1.0139728884254431</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="9"/>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="N72">
+        <f>-1/(2*PI()*I72*K72)</f>
+        <v>-0.56841051104248341</v>
+      </c>
+    </row>
+    <row r="73" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <v>0.05</v>
+      </c>
+      <c r="J73">
+        <f>-(K73*I73)/($G$3^2+(I73*K73)^2)</f>
+        <v>-3.1241436009865708</v>
+      </c>
+      <c r="K73">
+        <v>5.7</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="8"/>
+        <v>1.0138525045645792</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="9"/>
+        <v>0.17543859649122806</v>
+      </c>
+      <c r="N73">
+        <f>-1/(2*PI()*I73*K73)</f>
+        <v>-0.5584383968136678</v>
+      </c>
+    </row>
+    <row r="74" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <v>0.05</v>
+      </c>
+      <c r="J74">
+        <f>-(K74*I74)/($G$3^2+(I74*K74)^2)</f>
+        <v>-3.0818278427205104</v>
+      </c>
+      <c r="K74">
+        <v>5.8</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="8"/>
+        <v>1.0137307339752974</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="9"/>
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="N74">
+        <f>-1/(2*PI()*I74*K74)</f>
+        <v>-0.54881014859274257</v>
+      </c>
+    </row>
+    <row r="75" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <v>0.05</v>
+      </c>
+      <c r="J75">
+        <f>-(K75*I75)/($G$3^2+(I75*K75)^2)</f>
+        <v>-3.0404534913682038</v>
+      </c>
+      <c r="K75">
+        <v>5.9</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="8"/>
+        <v>1.0136079540337544</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="9"/>
+        <v>0.16949152542372881</v>
+      </c>
+      <c r="N75">
+        <f>-1/(2*PI()*I75*K75)</f>
+        <v>-0.5395082816674418</v>
+      </c>
+    </row>
+    <row r="76" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <v>0.05</v>
+      </c>
+      <c r="J76">
+        <f>-(K76*I76)/($G$3^2+(I76*K76)^2)</f>
+        <v>-2.9999999999999996</v>
+      </c>
+      <c r="K76">
+        <v>6</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="8"/>
+        <v>1.0134844971227348</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="9"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="N76">
+        <f>-1/(2*PI()*I76*K76)</f>
+        <v>-0.53051647697298443</v>
+      </c>
+    </row>
+    <row r="77" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <v>0.05</v>
+      </c>
+      <c r="J77">
+        <f>-(K77*I77)/($G$3^2+(I77*K77)^2)</f>
+        <v>-2.9604464935695218</v>
+      </c>
+      <c r="K77">
+        <v>6.1</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="8"/>
+        <v>1.0133606557377048</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="9"/>
+        <v>0.16393442622950821</v>
+      </c>
+      <c r="N77">
+        <f>-1/(2*PI()*I77*K77)</f>
+        <v>-0.52181948554719793</v>
+      </c>
+    </row>
+    <row r="78" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <v>0.05</v>
+      </c>
+      <c r="J78">
+        <f>-(K78*I78)/($G$3^2+(I78*K78)^2)</f>
+        <v>-2.9217719132893496</v>
+      </c>
+      <c r="K78">
+        <v>6.2</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="8"/>
+        <v>1.0132366869926654</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="9"/>
+        <v>0.16129032258064516</v>
+      </c>
+      <c r="N78">
+        <f>-1/(2*PI()*I78*K78)</f>
+        <v>-0.51340304223192046</v>
+      </c>
+    </row>
+    <row r="79" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I79">
+        <v>0.05</v>
+      </c>
+      <c r="J79">
+        <f>-(K79*I79)/($G$3^2+(I79*K79)^2)</f>
+        <v>-2.8839551384756232</v>
+      </c>
+      <c r="K79">
+        <v>6.3</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="8"/>
+        <v>1.0131128166000929</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="9"/>
+        <v>0.15873015873015872</v>
+      </c>
+      <c r="N79">
+        <f>-1/(2*PI()*I79*K79)</f>
+        <v>-0.50525378759331852</v>
+      </c>
+    </row>
+    <row r="80" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <v>0.05</v>
+      </c>
+      <c r="J80">
+        <f>-(K80*I80)/($G$3^2+(I80*K80)^2)</f>
+        <v>-2.8469750889679708</v>
+      </c>
+      <c r="K80">
+        <v>6.4</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="8"/>
+        <v>1.012989242389563</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="9"/>
+        <v>0.15625</v>
+      </c>
+      <c r="N80">
+        <f>-1/(2*PI()*I80*K80)</f>
+        <v>-0.49735919716217292</v>
+      </c>
+    </row>
+    <row r="81" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I81">
+        <v>0.05</v>
+      </c>
+      <c r="J81">
+        <f>-(K81*I81)/($G$3^2+(I81*K81)^2)</f>
+        <v>-2.810810810810807</v>
+      </c>
+      <c r="K81">
+        <v>6.5000000000000098</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="8"/>
+        <v>1.0128661374212986</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="9"/>
+        <v>0.1538461538461536</v>
+      </c>
+      <c r="N81">
+        <f>-1/(2*PI()*I81*K81)</f>
+        <v>-0.48970751720583106</v>
       </c>
     </row>
   </sheetData>

--- a/secData2.xlsx
+++ b/secData2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/my_mac/PycharmProjects/python-optimization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\python-optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF976A1C-21C8-9E48-A376-138DC15F9D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C2FAED-744F-452E-9C59-72B1CEF79EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{D481F55A-4EF9-4804-9C01-9BC1232C6DB2}"/>
+    <workbookView xWindow="2640" yWindow="1725" windowWidth="21600" windowHeight="13620" activeTab="1" xr2:uid="{D481F55A-4EF9-4804-9C01-9BC1232C6DB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -116,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,16 +647,16 @@
   <dimension ref="A1:AB44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:28">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -689,7 +689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -703,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="9">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -714,7 +714,7 @@
       </c>
       <c r="Q3" s="9">
         <f>I3*0.6</f>
-        <v>0.03</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
@@ -727,7 +727,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -739,7 +739,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="9">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -750,7 +750,7 @@
       </c>
       <c r="Q4" s="9">
         <f t="shared" ref="Q4:Q8" si="0">I4*0.6</f>
-        <v>1.2E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
@@ -763,7 +763,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="15.75" thickBot="1">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -773,7 +773,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="9">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -784,7 +784,7 @@
       </c>
       <c r="Q5" s="9">
         <f t="shared" si="0"/>
-        <v>1.7999999999999999E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -807,7 +807,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="9">
-        <v>0.01</v>
+        <v>0.9</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -818,14 +818,14 @@
       </c>
       <c r="Q6" s="9">
         <f t="shared" si="0"/>
-        <v>6.0000000000000001E-3</v>
+        <v>0.54</v>
       </c>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
       <c r="U6" s="6"/>
     </row>
-    <row r="7" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="15.75" thickBot="1">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -845,7 +845,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="9">
-        <f t="shared" si="0"/>
+        <f>I7*0.6</f>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="R7" s="9"/>
@@ -853,7 +853,7 @@
       <c r="T7" s="9"/>
       <c r="U7" s="6"/>
     </row>
-    <row r="8" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="15.75" thickBot="1">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -880,13 +880,13 @@
       <c r="T8" s="16"/>
       <c r="U8" s="8"/>
     </row>
-    <row r="10" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="15.75" thickBot="1">
       <c r="K10" s="18" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="15.75" thickBot="1">
       <c r="K11" s="3" t="s">
         <v>0</v>
       </c>
@@ -926,7 +926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28">
       <c r="E12" s="17" t="s">
         <v>3</v>
       </c>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R12" s="9">
         <v>0.01</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="X12" s="9">
         <f>Q12*0.6</f>
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="9">
         <f t="shared" ref="Y12:AB12" si="1">R12*0.6</f>
@@ -981,7 +981,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28">
       <c r="E13" s="5">
         <v>1</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28">
       <c r="E14" s="5">
         <v>1</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28">
       <c r="E15" s="5">
         <v>1</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28">
       <c r="E16" s="5">
         <v>2</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>5</v>
       </c>
       <c r="Q16" s="9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R16" s="9">
         <v>0.01</v>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="X16" s="9">
         <f t="shared" si="2"/>
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="9">
         <f t="shared" si="3"/>
@@ -1201,7 +1201,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="5:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:28" ht="15.75" thickBot="1">
       <c r="E17" s="5">
         <v>2</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:28">
       <c r="E18" s="5">
         <v>2</v>
       </c>
@@ -1269,7 +1269,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:28">
       <c r="E19" s="5">
         <v>2</v>
       </c>
@@ -1282,7 +1282,7 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:28">
       <c r="E20" s="5">
         <v>2</v>
       </c>
@@ -1295,7 +1295,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:28">
       <c r="E21" s="5">
         <v>3</v>
       </c>
@@ -1308,7 +1308,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:28">
       <c r="E22" s="5">
         <v>3</v>
       </c>
@@ -1321,7 +1321,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:28">
       <c r="E23" s="5">
         <v>3</v>
       </c>
@@ -1334,7 +1334,7 @@
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:28">
       <c r="E24" s="5">
         <v>4</v>
       </c>
@@ -1347,7 +1347,7 @@
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:28">
       <c r="E25" s="5">
         <v>4</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:28">
       <c r="E26" s="5">
         <v>4</v>
       </c>
@@ -1373,7 +1373,7 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:28">
       <c r="E27" s="5">
         <v>5</v>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
     </row>
-    <row r="28" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="5:28">
       <c r="E28" s="5">
         <v>5</v>
       </c>
@@ -1399,7 +1399,7 @@
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
     </row>
-    <row r="29" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="5:28">
       <c r="E29" s="5">
         <v>5</v>
       </c>
@@ -1412,7 +1412,7 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
     </row>
-    <row r="30" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="5:28">
       <c r="E30" s="5">
         <v>5</v>
       </c>
@@ -1425,7 +1425,7 @@
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
     </row>
-    <row r="31" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="5:28">
       <c r="E31" s="5">
         <v>5</v>
       </c>
@@ -1438,7 +1438,7 @@
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
     </row>
-    <row r="32" spans="5:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="5:28">
       <c r="E32" s="5">
         <v>6</v>
       </c>
@@ -1451,7 +1451,7 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
     </row>
-    <row r="33" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:14">
       <c r="E33" s="5">
         <v>6</v>
       </c>
@@ -1464,7 +1464,7 @@
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
     </row>
-    <row r="34" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:14">
       <c r="E34" s="5">
         <v>6</v>
       </c>
@@ -1477,7 +1477,7 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
     </row>
-    <row r="35" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:14">
       <c r="E35" s="5">
         <v>1</v>
       </c>
@@ -1490,7 +1490,7 @@
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
     </row>
-    <row r="36" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:14">
       <c r="E36" s="5">
         <v>2</v>
       </c>
@@ -1503,7 +1503,7 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
     </row>
-    <row r="37" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:14">
       <c r="E37" s="5">
         <v>3</v>
       </c>
@@ -1516,7 +1516,7 @@
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
     </row>
-    <row r="38" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:14">
       <c r="E38" s="5">
         <v>4</v>
       </c>
@@ -1529,7 +1529,7 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
     </row>
-    <row r="39" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:14">
       <c r="E39" s="5">
         <v>5</v>
       </c>
@@ -1542,7 +1542,7 @@
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
     </row>
-    <row r="40" spans="5:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:14" ht="15.75" thickBot="1">
       <c r="E40" s="7">
         <v>6</v>
       </c>
@@ -1555,28 +1555,28 @@
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
     </row>
-    <row r="41" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="5:14">
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
     </row>
-    <row r="42" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="5:14">
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
     </row>
-    <row r="43" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="5:14">
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
     </row>
-    <row r="44" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="5:14">
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
@@ -1592,2364 +1592,2364 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0230BEE9-3A29-384E-B52B-41AFA4A64EB2}">
-  <dimension ref="E1:Q81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A83701-554A-49EA-BEFF-31A40D4F0692}">
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="O73" sqref="O73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="F2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4.7058823529411757</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="E3">
+        <v>-1.1764705882352939</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>3.1120331950207469</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="E4">
+        <v>-0.82987551867219922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>3.9999999999999996</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="E5">
+        <v>-1.9999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="K2">
+      <c r="C6">
+        <v>3.8461538461538458</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E6">
+        <v>-0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="E7">
+        <v>-3.9999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>4.4543429844097986</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E9">
+        <v>-1.5590200445434297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>3.8461538461538458</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E10">
+        <v>-0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>3.1707317073170733</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="E11">
+        <v>-1.4634146341463414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>9.615384615384615</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E12">
+        <v>-1.9230769230769229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="C13">
+        <v>4.7058823529411757</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E13">
+        <v>-1.1764705882352939</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1">
         <v>2</v>
       </c>
-      <c r="M2">
+      <c r="C14">
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E14">
+        <v>-3.9999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="E15">
+        <v>-0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>3.1120331950207469</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="E16">
+        <v>-0.82987551867219922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0.1</v>
-      </c>
-      <c r="H3">
-        <v>0.1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0.05</v>
-      </c>
-      <c r="M3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E4">
+      <c r="C18">
+        <v>3.1707317073170733</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="E18">
+        <v>-1.4634146341463414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="E19">
+        <v>-0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>0.1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0.1</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>0.05</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E5">
+      <c r="C21">
+        <v>4.4543429844097986</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E21">
+        <v>-1.5590200445434297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>0.1</v>
-      </c>
-      <c r="G5">
-        <v>0.1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <v>0.05</v>
-      </c>
-      <c r="L5">
-        <v>0.05</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="E7" t="s">
+      <c r="C22">
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="E22">
+        <v>-3.9999999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1">
         <v>5</v>
       </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="F8" t="e">
-        <f>F3/(F3^2+K3^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ref="G8:H10" si="0">G3/(G3^2+L3^2)</f>
-        <v>7.9999999999999991</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>7.9999999999999991</v>
-      </c>
-      <c r="J8" t="e">
-        <f>-K3/(F3^2+K3^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8">
-        <f>-L3/(G3^2+L3^2)</f>
-        <v>-3.9999999999999996</v>
-      </c>
-      <c r="L8">
-        <f>-M3/(H3^2+M3^2)</f>
-        <v>-3.9999999999999996</v>
-      </c>
-      <c r="M8" t="e">
-        <f t="shared" ref="K8:M10" si="1">-N3/(I3^2+N3^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O8">
-        <v>0.05</v>
-      </c>
-      <c r="P8">
-        <v>-4</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="F9">
-        <f t="shared" ref="F9:F10" si="2">F4/(F4^2+K4^2)</f>
-        <v>7.9999999999999991</v>
-      </c>
-      <c r="G9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>7.9999999999999991</v>
-      </c>
-      <c r="J9">
-        <f t="shared" ref="J9:J10" si="3">-K4/(F4^2+K4^2)</f>
-        <v>-3.9999999999999996</v>
-      </c>
-      <c r="K9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
-        <v>-3.9999999999999996</v>
-      </c>
-      <c r="M9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O9">
-        <v>0.1</v>
-      </c>
-      <c r="P9">
-        <v>-5</v>
-      </c>
-      <c r="Q9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="F10">
-        <f t="shared" si="2"/>
-        <v>7.9999999999999991</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>7.9999999999999991</v>
-      </c>
-      <c r="H10" t="e">
-        <f>H5/(H5^2+M5^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="3"/>
-        <v>-3.9999999999999996</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>-3.9999999999999996</v>
-      </c>
-      <c r="L10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O10">
-        <v>0.2</v>
-      </c>
-      <c r="P10">
-        <v>-4</v>
-      </c>
-      <c r="Q10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="O11">
-        <v>0.4</v>
-      </c>
-      <c r="P11">
-        <v>-2.355</v>
-      </c>
-      <c r="Q11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="O12">
-        <v>0.8</v>
-      </c>
-      <c r="P12">
-        <v>-1.23</v>
-      </c>
-      <c r="Q12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="O13">
-        <v>1.6</v>
-      </c>
-      <c r="P13">
-        <v>-0.622</v>
-      </c>
-      <c r="Q13">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="I16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I17">
-        <v>0.05</v>
-      </c>
-      <c r="J17">
-        <f>-(K17*I17)/($G$3^2+(I17*K17)^2)</f>
-        <v>-3.9999999999999996</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <f>-1/(2*PI()*I17*K17)</f>
-        <v>-3.183098861837907</v>
-      </c>
-    </row>
-    <row r="18" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I18">
-        <v>0.05</v>
-      </c>
-      <c r="J18">
-        <f t="shared" ref="J18:J64" si="4">-(K18*I18)/($G$3^2+(I18*K18)^2)</f>
-        <v>-4.2226487523992322</v>
-      </c>
-      <c r="K18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L18">
-        <f>J17/J18</f>
-        <v>0.94727272727272716</v>
-      </c>
-      <c r="M18">
-        <f>1/K18</f>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="N18">
-        <f>-1/(2*PI()*I18*K18)</f>
-        <v>-2.8937262380344606</v>
-      </c>
-    </row>
-    <row r="19" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I19">
-        <v>0.05</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="4"/>
-        <v>-4.4117647058823524</v>
-      </c>
-      <c r="K19">
-        <v>1.2</v>
-      </c>
-      <c r="L19">
-        <f t="shared" ref="L19:L72" si="5">J18/J19</f>
-        <v>0.95713371721049278</v>
-      </c>
-      <c r="M19">
-        <f t="shared" ref="M19:M72" si="6">1/K19</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="N19">
-        <f t="shared" ref="N18:N72" si="7">-1/(2*PI()*I19*K19)</f>
-        <v>-2.6525823848649224</v>
-      </c>
-    </row>
-    <row r="20" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I20">
-        <v>0.05</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="4"/>
-        <v>-4.5694200351493848</v>
-      </c>
-      <c r="K20">
-        <v>1.3</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="5"/>
-        <v>0.96549773755656099</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="6"/>
-        <v>0.76923076923076916</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="7"/>
-        <v>-2.4485375860291589</v>
-      </c>
-    </row>
-    <row r="21" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I21">
-        <v>0.05</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="4"/>
-        <v>-4.6979865771812079</v>
-      </c>
-      <c r="K21">
-        <v>1.4</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="5"/>
-        <v>0.97263369319608339</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="6"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="7"/>
-        <v>-2.2736420441699337</v>
-      </c>
-    </row>
-    <row r="22" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I22">
-        <v>0.05</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="4"/>
-        <v>-4.8</v>
-      </c>
-      <c r="K22">
-        <v>1.5</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="5"/>
-        <v>0.97874720357941836</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="6"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="7"/>
-        <v>-2.1220659078919377</v>
-      </c>
-    </row>
-    <row r="23" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I23">
-        <v>0.05</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="4"/>
-        <v>-4.8780487804878048</v>
-      </c>
-      <c r="K23">
-        <v>1.6</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="5"/>
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="6"/>
-        <v>0.625</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="7"/>
-        <v>-1.9894367886486917</v>
-      </c>
-    </row>
-    <row r="24" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I24">
-        <v>0.05</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="4"/>
-        <v>-4.9346879535558772</v>
-      </c>
-      <c r="K24">
-        <v>1.7</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="5"/>
-        <v>0.98852223816355822</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="6"/>
-        <v>0.58823529411764708</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="7"/>
-        <v>-1.8724110951987689</v>
-      </c>
-    </row>
-    <row r="25" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I25">
-        <v>0.05</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="4"/>
-        <v>-4.9723756906077341</v>
-      </c>
-      <c r="K25">
-        <v>1.8</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="5"/>
-        <v>0.99242057732623767</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="6"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="7"/>
-        <v>-1.7683882565766149</v>
-      </c>
-    </row>
-    <row r="26" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I26">
-        <v>0.05</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="4"/>
-        <v>-4.9934296977660972</v>
-      </c>
-      <c r="K26">
-        <v>1.9</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="5"/>
-        <v>0.99578365804012781</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="6"/>
-        <v>0.52631578947368418</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="7"/>
-        <v>-1.6753151904410037</v>
-      </c>
-    </row>
-    <row r="27" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I27">
-        <v>0.05</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="4"/>
-        <v>-4.9947045671473953</v>
-      </c>
-      <c r="K27">
-        <v>1.91</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="5"/>
-        <v>0.9997447557980339</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="6"/>
-        <v>0.52356020942408377</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="7"/>
-        <v>-1.6665439067214172</v>
-      </c>
-    </row>
-    <row r="28" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I28">
-        <v>0.05</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="4"/>
-        <v>-4.9958368026644457</v>
-      </c>
-      <c r="K28">
-        <v>1.92</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="5"/>
-        <v>0.99977336419067042</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="6"/>
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="7"/>
-        <v>-1.6578639905405765</v>
-      </c>
-    </row>
-    <row r="29" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I29">
-        <v>0.05</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="4"/>
-        <v>-4.9968284379085803</v>
-      </c>
-      <c r="K29">
-        <v>1.93</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="5"/>
-        <v>0.99980154707001512</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="6"/>
-        <v>0.5181347150259068</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="7"/>
-        <v>-1.6492740216776718</v>
-      </c>
-    </row>
-    <row r="30" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I30">
-        <v>0.05</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="4"/>
-        <v>-4.9976814879694977</v>
-      </c>
-      <c r="K30">
-        <v>1.94</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="5"/>
-        <v>0.99982931083884174</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="6"/>
-        <v>0.51546391752577325</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="7"/>
-        <v>-1.6407726091947974</v>
-      </c>
-    </row>
-    <row r="31" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I31">
-        <v>0.05</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="4"/>
-        <v>-4.9983979493751995</v>
-      </c>
-      <c r="K31">
-        <v>1.95</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="5"/>
-        <v>0.9998566617918464</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="6"/>
-        <v>0.51282051282051289</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="7"/>
-        <v>-1.6323583906861061</v>
-      </c>
-    </row>
-    <row r="32" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I32">
-        <v>0.05</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="4"/>
-        <v>-4.9989798000408072</v>
-      </c>
-      <c r="K32">
-        <v>1.96</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="5"/>
-        <v>0.99988360611787175</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="6"/>
-        <v>0.51020408163265307</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="7"/>
-        <v>-1.6240300315499525</v>
-      </c>
-    </row>
-    <row r="33" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I33">
-        <v>0.05</v>
-      </c>
-      <c r="J33">
-        <f>-(K33*I33)/($G$3^2+(I33*K33)^2)</f>
-        <v>-4.9994289992259757</v>
-      </c>
-      <c r="K33">
-        <v>1.97</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="5"/>
-        <v>0.99991014990207117</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="6"/>
-        <v>0.50761421319796951</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="7"/>
-        <v>-1.6157862242832013</v>
-      </c>
-    </row>
-    <row r="34" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I34">
-        <v>0.05</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="4"/>
-        <v>-4.9997474875006311</v>
-      </c>
-      <c r="K34">
-        <v>1.98</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="5"/>
-        <v>0.99993629912801563</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="6"/>
-        <v>0.50505050505050508</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="7"/>
-        <v>-1.6076256877969228</v>
-      </c>
-    </row>
-    <row r="35" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I35">
-        <v>0.05</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="4"/>
-        <v>-4.9999371867187596</v>
-      </c>
-      <c r="K35">
-        <v>1.99</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="5"/>
-        <v>0.99996205967974305</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="6"/>
-        <v>0.50251256281407031</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="7"/>
-        <v>-1.599547166752717</v>
-      </c>
-    </row>
-    <row r="36" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I36">
-        <v>0.05</v>
-      </c>
-      <c r="J36">
-        <f>-(K36*I36)/($G$3^2+(I36*K36)^2)</f>
-        <v>-4.9999999999999991</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <f>J35/J36</f>
-        <v>0.99998743734375206</v>
-      </c>
-      <c r="M36">
-        <f>1/K36</f>
-        <v>0.5</v>
-      </c>
-      <c r="N36">
-        <f>-1/(2*PI()*I36*K36)</f>
-        <v>-1.5915494309189535</v>
-      </c>
-    </row>
-    <row r="37" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I37">
-        <v>0.05</v>
-      </c>
-      <c r="J37">
-        <f>-(K37*I37)/($G$3^2+(I37*K37)^2)</f>
-        <v>-4.9940546967895365</v>
-      </c>
-      <c r="K37">
-        <v>2.1</v>
-      </c>
-      <c r="L37">
-        <f t="shared" ref="L37:L81" si="8">J36/J37</f>
-        <v>1.001190476190476</v>
-      </c>
-      <c r="M37">
-        <f t="shared" ref="M37:M81" si="9">1/K37</f>
-        <v>0.47619047619047616</v>
-      </c>
-      <c r="N37">
-        <f>-1/(2*PI()*I37*K37)</f>
-        <v>-1.5157613627799555</v>
-      </c>
-    </row>
-    <row r="38" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I38">
-        <v>0.05</v>
-      </c>
-      <c r="J38">
-        <f>-(K38*I38)/($G$3^2+(I38*K38)^2)</f>
-        <v>-4.9773755656108589</v>
-      </c>
-      <c r="K38">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="8"/>
-        <v>1.0033509890822616</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="9"/>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="N38">
-        <f>-1/(2*PI()*I38*K38)</f>
-        <v>-1.4468631190172303</v>
-      </c>
-    </row>
-    <row r="39" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I39">
-        <v>0.05</v>
-      </c>
-      <c r="J39">
-        <f>-(K39*I39)/($G$3^2+(I39*K39)^2)</f>
-        <v>-4.9515608180839612</v>
-      </c>
-      <c r="K39">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="8"/>
-        <v>1.0052134566201061</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="9"/>
-        <v>0.43478260869565222</v>
-      </c>
-      <c r="N39">
-        <f>-1/(2*PI()*I39*K39)</f>
-        <v>-1.3839560268860467</v>
-      </c>
-    </row>
-    <row r="40" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I40">
-        <v>0.05</v>
-      </c>
-      <c r="J40">
-        <f>-(K40*I40)/($G$3^2+(I40*K40)^2)</f>
-        <v>-4.9180327868852451</v>
-      </c>
-      <c r="K40">
-        <v>2.4</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="8"/>
-        <v>1.006817366343739</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="9"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="N40">
-        <f>-1/(2*PI()*I40*K40)</f>
-        <v>-1.3262911924324612</v>
-      </c>
-    </row>
-    <row r="41" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I41">
-        <v>0.05</v>
-      </c>
-      <c r="J41">
-        <f>-(K41*I41)/($G$3^2+(I41*K41)^2)</f>
-        <v>-4.8780487804878048</v>
-      </c>
-      <c r="K41">
-        <v>2.5</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="8"/>
-        <v>1.0081967213114753</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="9"/>
-        <v>0.4</v>
-      </c>
-      <c r="N41">
-        <f>-1/(2*PI()*I41*K41)</f>
-        <v>-1.2732395447351628</v>
-      </c>
-    </row>
-    <row r="42" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I42">
-        <v>0.05</v>
-      </c>
-      <c r="J42">
-        <f>-(K42*I42)/($G$3^2+(I42*K42)^2)</f>
-        <v>-4.8327137546468393</v>
-      </c>
-      <c r="K42">
-        <v>2.6</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="8"/>
-        <v>1.0093808630393999</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="9"/>
-        <v>0.38461538461538458</v>
-      </c>
-      <c r="N42">
-        <f>-1/(2*PI()*I42*K42)</f>
-        <v>-1.2242687930145795</v>
-      </c>
-    </row>
-    <row r="43" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I43">
-        <v>0.05</v>
-      </c>
-      <c r="J43">
-        <f>-(K43*I43)/($G$3^2+(I43*K43)^2)</f>
-        <v>-4.7829937998228518</v>
-      </c>
-      <c r="K43">
-        <v>2.7</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="8"/>
-        <v>1.0103951535178299</v>
-      </c>
-      <c r="M43">
-        <f t="shared" si="9"/>
-        <v>0.37037037037037035</v>
-      </c>
-      <c r="N43">
-        <f>-1/(2*PI()*I43*K43)</f>
-        <v>-1.1789255043844098</v>
-      </c>
-    </row>
-    <row r="44" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I44">
-        <v>0.05</v>
-      </c>
-      <c r="J44">
-        <f>-(K44*I44)/($G$3^2+(I44*K44)^2)</f>
-        <v>-4.7297297297297298</v>
-      </c>
-      <c r="K44">
-        <v>2.8</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="8"/>
-        <v>1.0112615462482601</v>
-      </c>
-      <c r="M44">
-        <f t="shared" si="9"/>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="N44">
-        <f>-1/(2*PI()*I44*K44)</f>
-        <v>-1.1368210220849668</v>
-      </c>
-    </row>
-    <row r="45" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I45">
-        <v>0.05</v>
-      </c>
-      <c r="J45">
-        <f>-(K45*I45)/($G$3^2+(I45*K45)^2)</f>
-        <v>-4.6736502820306205</v>
-      </c>
-      <c r="K45">
-        <v>2.9</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="8"/>
-        <v>1.0119990680335509</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="9"/>
-        <v>0.34482758620689657</v>
-      </c>
-      <c r="N45">
-        <f>-1/(2*PI()*I45*K45)</f>
-        <v>-1.0976202971854851</v>
-      </c>
-    </row>
-    <row r="46" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I46">
-        <v>0.05</v>
-      </c>
-      <c r="J46">
-        <f>-(K46*I46)/($G$3^2+(I46*K46)^2)</f>
-        <v>-4.615384615384615</v>
-      </c>
-      <c r="K46">
-        <v>3</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="8"/>
-        <v>1.0126242277733013</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="9"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N46">
-        <f>-1/(2*PI()*I46*K46)</f>
-        <v>-1.0610329539459689</v>
-      </c>
-    </row>
-    <row r="47" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I47">
-        <v>0.05</v>
-      </c>
-      <c r="J47">
-        <f>-(K47*I47)/($G$3^2+(I47*K47)^2)</f>
-        <v>-4.5554739162380589</v>
-      </c>
-      <c r="K47">
-        <v>3.1</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="8"/>
-        <v>1.0131513647642683</v>
-      </c>
-      <c r="M47">
-        <f t="shared" si="9"/>
-        <v>0.32258064516129031</v>
-      </c>
-      <c r="N47">
-        <f>-1/(2*PI()*I47*K47)</f>
-        <v>-1.0268060844638409</v>
-      </c>
-    </row>
-    <row r="48" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I48">
-        <v>0.05</v>
-      </c>
-      <c r="J48">
-        <f>-(K48*I48)/($G$3^2+(I48*K48)^2)</f>
-        <v>-4.4943820224719095</v>
-      </c>
-      <c r="K48">
-        <v>3.2</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="8"/>
-        <v>1.0135929463629683</v>
-      </c>
-      <c r="M48">
-        <f t="shared" si="9"/>
-        <v>0.3125</v>
-      </c>
-      <c r="N48">
-        <f>-1/(2*PI()*I48*K48)</f>
-        <v>-0.99471839432434583</v>
-      </c>
-    </row>
-    <row r="49" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I49">
-        <v>0.05</v>
-      </c>
-      <c r="J49">
-        <f>-(K49*I49)/($G$3^2+(I49*K49)^2)</f>
-        <v>-4.4325050369375409</v>
-      </c>
-      <c r="K49">
-        <v>3.3</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="8"/>
-        <v>1.0139598229485871</v>
-      </c>
-      <c r="M49">
-        <f t="shared" si="9"/>
-        <v>0.30303030303030304</v>
-      </c>
-      <c r="N49">
-        <f>-1/(2*PI()*I49*K49)</f>
-        <v>-0.96457541267815372</v>
-      </c>
-    </row>
-    <row r="50" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I50">
-        <v>0.05</v>
-      </c>
-      <c r="J50">
-        <f>-(K50*I50)/($G$3^2+(I50*K50)^2)</f>
-        <v>-4.3701799485861184</v>
-      </c>
-      <c r="K50">
-        <v>3.4</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="8"/>
-        <v>1.0142614466874726</v>
-      </c>
-      <c r="M50">
-        <f t="shared" si="9"/>
-        <v>0.29411764705882354</v>
-      </c>
-      <c r="N50">
-        <f>-1/(2*PI()*I50*K50)</f>
-        <v>-0.93620554759938446</v>
-      </c>
-    </row>
-    <row r="51" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I51">
-        <v>0.05</v>
-      </c>
-      <c r="J51">
-        <f>-(K51*I51)/($G$3^2+(I51*K51)^2)</f>
-        <v>-4.3076923076923075</v>
-      </c>
-      <c r="K51">
-        <v>3.5</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="8"/>
-        <v>1.014506059493206</v>
-      </c>
-      <c r="M51">
-        <f t="shared" si="9"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="N51">
-        <f>-1/(2*PI()*I51*K51)</f>
-        <v>-0.90945681766797337</v>
-      </c>
-    </row>
-    <row r="52" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I52">
-        <v>0.05</v>
-      </c>
-      <c r="J52">
-        <f>-(K52*I52)/($G$3^2+(I52*K52)^2)</f>
-        <v>-4.2452830188679247</v>
-      </c>
-      <c r="K52">
-        <v>3.6</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="8"/>
-        <v>1.0147008547008547</v>
-      </c>
-      <c r="M52">
-        <f t="shared" si="9"/>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="N52">
-        <f>-1/(2*PI()*I52*K52)</f>
-        <v>-0.88419412828830746</v>
-      </c>
-    </row>
-    <row r="53" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I53">
-        <v>0.05</v>
-      </c>
-      <c r="J53">
-        <f>-(K53*I53)/($G$3^2+(I53*K53)^2)</f>
-        <v>-4.1831543244771048</v>
-      </c>
-      <c r="K53">
-        <v>3.7</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="8"/>
-        <v>1.0148521162672108</v>
-      </c>
-      <c r="M53">
-        <f t="shared" si="9"/>
-        <v>0.27027027027027023</v>
-      </c>
-      <c r="N53">
-        <f>-1/(2*PI()*I53*K53)</f>
-        <v>-0.86029698968592072</v>
-      </c>
-    </row>
-    <row r="54" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I54">
-        <v>0.05</v>
-      </c>
-      <c r="J54">
-        <f>-(K54*I54)/($G$3^2+(I54*K54)^2)</f>
-        <v>-4.1214750542299345</v>
-      </c>
-      <c r="K54">
-        <v>3.8</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="8"/>
-        <v>1.0149653387283923</v>
-      </c>
-      <c r="M54">
-        <f t="shared" si="9"/>
-        <v>0.26315789473684209</v>
-      </c>
-      <c r="N54">
-        <f>-1/(2*PI()*I54*K54)</f>
-        <v>-0.83765759522050187</v>
-      </c>
-    </row>
-    <row r="55" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I55">
-        <v>0.05</v>
-      </c>
-      <c r="J55">
-        <f>-(K55*I55)/($G$3^2+(I55*K55)^2)</f>
-        <v>-4.0603852160333158</v>
-      </c>
-      <c r="K55">
-        <v>3.9</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="8"/>
-        <v>1.0150453306635518</v>
-      </c>
-      <c r="M55">
-        <f t="shared" si="9"/>
-        <v>0.25641025641025644</v>
-      </c>
-      <c r="N55">
-        <f>-1/(2*PI()*I55*K55)</f>
-        <v>-0.81617919534305305</v>
-      </c>
-    </row>
-    <row r="56" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I56">
-        <v>0.05</v>
-      </c>
-      <c r="J56">
-        <f>-(K56*I56)/($G$3^2+(I56*K56)^2)</f>
-        <v>-3.9999999999999996</v>
-      </c>
-      <c r="K56">
-        <v>4</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="8"/>
-        <v>1.0150963040083292</v>
-      </c>
-      <c r="M56">
-        <f t="shared" si="9"/>
-        <v>0.25</v>
-      </c>
-      <c r="N56">
-        <f>-1/(2*PI()*I56*K56)</f>
-        <v>-0.79577471545947676</v>
-      </c>
-    </row>
-    <row r="57" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I57">
-        <v>0.05</v>
-      </c>
-      <c r="J57">
-        <f>-(K57*I57)/($G$3^2+(I57*K57)^2)</f>
-        <v>-3.9404132628543969</v>
-      </c>
-      <c r="K57">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="8"/>
-        <v>1.0151219512195122</v>
-      </c>
-      <c r="M57">
-        <f t="shared" si="9"/>
-        <v>0.24390243902439027</v>
-      </c>
-      <c r="N57">
-        <f>-1/(2*PI()*I57*K57)</f>
-        <v>-0.77636557605802614</v>
-      </c>
-    </row>
-    <row r="58" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I58">
-        <v>0.05</v>
-      </c>
-      <c r="J58">
-        <f>-(K58*I58)/($G$3^2+(I58*K58)^2)</f>
-        <v>-3.8817005545286505</v>
-      </c>
-      <c r="K58">
-        <v>4.2</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="8"/>
-        <v>1.0151255120020137</v>
-      </c>
-      <c r="M58">
-        <f t="shared" si="9"/>
-        <v>0.23809523809523808</v>
-      </c>
-      <c r="N58">
-        <f>-1/(2*PI()*I58*K58)</f>
-        <v>-0.75788068138997777</v>
-      </c>
-    </row>
-    <row r="59" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I59">
-        <v>0.05</v>
-      </c>
-      <c r="J59">
-        <f>-(K59*I59)/($G$3^2+(I59*K59)^2)</f>
-        <v>-3.8239217429968875</v>
-      </c>
-      <c r="K59">
-        <v>4.3</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="8"/>
-        <v>1.0151098310622018</v>
-      </c>
-      <c r="M59">
-        <f t="shared" si="9"/>
-        <v>0.23255813953488372</v>
-      </c>
-      <c r="N59">
-        <f>-1/(2*PI()*I59*K59)</f>
-        <v>-0.74025554926462955</v>
-      </c>
-    </row>
-    <row r="60" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I60">
-        <v>0.05</v>
-      </c>
-      <c r="J60">
-        <f>-(K60*I60)/($G$3^2+(I60*K60)^2)</f>
-        <v>-3.7671232876712324</v>
-      </c>
-      <c r="K60">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="L60">
-        <f t="shared" si="8"/>
-        <v>1.0150774081409921</v>
-      </c>
-      <c r="M60">
-        <f t="shared" si="9"/>
-        <v>0.22727272727272727</v>
-      </c>
-      <c r="N60">
-        <f>-1/(2*PI()*I60*K60)</f>
-        <v>-0.72343155950861515</v>
-      </c>
-    </row>
-    <row r="61" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I61">
-        <v>0.05</v>
-      </c>
-      <c r="J61">
-        <f>-(K61*I61)/($G$3^2+(I61*K61)^2)</f>
-        <v>-3.7113402061855667</v>
-      </c>
-      <c r="K61">
-        <v>4.5</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="8"/>
-        <v>1.0150304414003044</v>
-      </c>
-      <c r="M61">
-        <f t="shared" si="9"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="N61">
-        <f>-1/(2*PI()*I61*K61)</f>
-        <v>-0.70735530263064594</v>
-      </c>
-    </row>
-    <row r="62" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I62">
-        <v>0.05</v>
-      </c>
-      <c r="J62">
-        <f>-(K62*I62)/($G$3^2+(I62*K62)^2)</f>
-        <v>-3.6565977742448337</v>
-      </c>
-      <c r="K62">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="L62">
-        <f t="shared" si="8"/>
-        <v>1.0149708650829221</v>
-      </c>
-      <c r="M62">
-        <f t="shared" si="9"/>
-        <v>0.21739130434782611</v>
-      </c>
-      <c r="N62">
-        <f>-1/(2*PI()*I62*K62)</f>
-        <v>-0.69197801344302334</v>
-      </c>
-    </row>
-    <row r="63" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I63">
-        <v>0.05</v>
-      </c>
-      <c r="J63">
-        <f>-(K63*I63)/($G$3^2+(I63*K63)^2)</f>
-        <v>-3.6029129934840936</v>
-      </c>
-      <c r="K63">
-        <v>4.7</v>
-      </c>
-      <c r="L63">
-        <f t="shared" si="8"/>
-        <v>1.0149003822345501</v>
-      </c>
-      <c r="M63">
-        <f t="shared" si="9"/>
-        <v>0.21276595744680851</v>
-      </c>
-      <c r="N63">
-        <f>-1/(2*PI()*I63*K63)</f>
-        <v>-0.67725507698678866</v>
-      </c>
-    </row>
-    <row r="64" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I64">
-        <v>0.05</v>
-      </c>
-      <c r="J64">
-        <f>-(K64*I64)/($G$3^2+(I64*K64)^2)</f>
-        <v>-3.550295857988166</v>
-      </c>
-      <c r="K64">
-        <v>4.8</v>
-      </c>
-      <c r="L64">
-        <f t="shared" si="8"/>
-        <v>1.0148204931646863</v>
-      </c>
-      <c r="M64">
-        <f t="shared" si="9"/>
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="N64">
-        <f>-1/(2*PI()*I64*K64)</f>
-        <v>-0.66314559621623059</v>
-      </c>
-    </row>
-    <row r="65" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I65">
-        <v>0.05</v>
-      </c>
-      <c r="J65">
-        <f>-(K65*I65)/($G$3^2+(I65*K65)^2)</f>
-        <v>-3.4987504462691899</v>
-      </c>
-      <c r="K65">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="L65">
-        <f t="shared" si="8"/>
-        <v>1.0147325202270256</v>
-      </c>
-      <c r="M65">
-        <f t="shared" si="9"/>
-        <v>0.2040816326530612</v>
-      </c>
-      <c r="N65">
-        <f>-1/(2*PI()*I65*K65)</f>
-        <v>-0.64961201261998092</v>
-      </c>
-    </row>
-    <row r="66" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I66">
-        <v>0.05</v>
-      </c>
-      <c r="J66">
-        <f>-(K66*I66)/($G$3^2+(I66*K66)^2)</f>
-        <v>-3.4482758620689653</v>
-      </c>
-      <c r="K66">
-        <v>5</v>
-      </c>
-      <c r="L66">
-        <f t="shared" si="8"/>
-        <v>1.014637629418065</v>
-      </c>
-      <c r="M66">
-        <f t="shared" si="9"/>
-        <v>0.2</v>
-      </c>
-      <c r="N66">
-        <f>-1/(2*PI()*I66*K66)</f>
-        <v>-0.63661977236758138</v>
-      </c>
-    </row>
-    <row r="67" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I67">
-        <v>0.05</v>
-      </c>
-      <c r="J67">
-        <f>-(K67*I67)/($G$3^2+(I67*K67)^2)</f>
-        <v>-3.39886704431856</v>
-      </c>
-      <c r="K67">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="L67">
-        <f t="shared" si="8"/>
-        <v>1.0145368492224476</v>
-      </c>
-      <c r="M67">
-        <f t="shared" si="9"/>
-        <v>0.19607843137254904</v>
-      </c>
-      <c r="N67">
-        <f>-1/(2*PI()*I67*K67)</f>
-        <v>-0.62413703173292301</v>
-      </c>
-    </row>
-    <row r="68" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I68">
-        <v>0.05</v>
-      </c>
-      <c r="J68">
-        <f>-(K68*I68)/($G$3^2+(I68*K68)^2)</f>
-        <v>-3.3505154639175259</v>
-      </c>
-      <c r="K68">
-        <v>5.2</v>
-      </c>
-      <c r="L68">
-        <f t="shared" si="8"/>
-        <v>1.0144310870735394</v>
-      </c>
-      <c r="M68">
-        <f t="shared" si="9"/>
-        <v>0.19230769230769229</v>
-      </c>
-      <c r="N68">
-        <f>-1/(2*PI()*I68*K68)</f>
-        <v>-0.61213439650728974</v>
-      </c>
-    </row>
-    <row r="69" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I69">
-        <v>0.05</v>
-      </c>
-      <c r="J69">
-        <f>-(K69*I69)/($G$3^2+(I69*K69)^2)</f>
-        <v>-3.3032097226550321</v>
-      </c>
-      <c r="K69">
-        <v>5.3</v>
-      </c>
-      <c r="L69">
-        <f t="shared" si="8"/>
-        <v>1.0143211437463531</v>
-      </c>
-      <c r="M69">
-        <f t="shared" si="9"/>
-        <v>0.18867924528301888</v>
-      </c>
-      <c r="N69">
-        <f>-1/(2*PI()*I69*K69)</f>
-        <v>-0.60058469091281264</v>
-      </c>
-    </row>
-    <row r="70" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I70">
-        <v>0.05</v>
-      </c>
-      <c r="J70">
-        <f>-(K70*I70)/($G$3^2+(I70*K70)^2)</f>
-        <v>-3.2569360675512669</v>
-      </c>
-      <c r="K70">
-        <v>5.4</v>
-      </c>
-      <c r="L70">
-        <f t="shared" si="8"/>
-        <v>1.0142077259559339</v>
-      </c>
-      <c r="M70">
-        <f t="shared" si="9"/>
-        <v>0.18518518518518517</v>
-      </c>
-      <c r="N70">
-        <f>-1/(2*PI()*I70*K70)</f>
-        <v>-0.5894627521922049</v>
-      </c>
-    </row>
-    <row r="71" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I71">
-        <v>0.05</v>
-      </c>
-      <c r="J71">
-        <f>-(K71*I71)/($G$3^2+(I71*K71)^2)</f>
-        <v>-3.2116788321167884</v>
-      </c>
-      <c r="K71">
-        <v>5.5</v>
-      </c>
-      <c r="L71">
-        <f t="shared" si="8"/>
-        <v>1.0140914573966444</v>
-      </c>
-      <c r="M71">
-        <f t="shared" si="9"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="N71">
-        <f>-1/(2*PI()*I71*K71)</f>
-        <v>-0.57874524760689217</v>
-      </c>
-    </row>
-    <row r="72" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I72">
-        <v>0.05</v>
-      </c>
-      <c r="J72">
-        <f>-(K72*I72)/($G$3^2+(I72*K72)^2)</f>
-        <v>-3.1674208144796383</v>
-      </c>
-      <c r="K72">
-        <v>5.6</v>
-      </c>
-      <c r="L72">
-        <f t="shared" si="8"/>
-        <v>1.0139728884254431</v>
-      </c>
-      <c r="M72">
-        <f t="shared" si="9"/>
-        <v>0.17857142857142858</v>
-      </c>
-      <c r="N72">
-        <f>-1/(2*PI()*I72*K72)</f>
-        <v>-0.56841051104248341</v>
-      </c>
-    </row>
-    <row r="73" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I73">
-        <v>0.05</v>
-      </c>
-      <c r="J73">
-        <f>-(K73*I73)/($G$3^2+(I73*K73)^2)</f>
-        <v>-3.1241436009865708</v>
-      </c>
-      <c r="K73">
-        <v>5.7</v>
-      </c>
-      <c r="L73">
-        <f t="shared" si="8"/>
-        <v>1.0138525045645792</v>
-      </c>
-      <c r="M73">
-        <f t="shared" si="9"/>
-        <v>0.17543859649122806</v>
-      </c>
-      <c r="N73">
-        <f>-1/(2*PI()*I73*K73)</f>
-        <v>-0.5584383968136678</v>
-      </c>
-    </row>
-    <row r="74" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I74">
-        <v>0.05</v>
-      </c>
-      <c r="J74">
-        <f>-(K74*I74)/($G$3^2+(I74*K74)^2)</f>
-        <v>-3.0818278427205104</v>
-      </c>
-      <c r="K74">
-        <v>5.8</v>
-      </c>
-      <c r="L74">
-        <f t="shared" si="8"/>
-        <v>1.0137307339752974</v>
-      </c>
-      <c r="M74">
-        <f t="shared" si="9"/>
-        <v>0.17241379310344829</v>
-      </c>
-      <c r="N74">
-        <f>-1/(2*PI()*I74*K74)</f>
-        <v>-0.54881014859274257</v>
-      </c>
-    </row>
-    <row r="75" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I75">
-        <v>0.05</v>
-      </c>
-      <c r="J75">
-        <f>-(K75*I75)/($G$3^2+(I75*K75)^2)</f>
-        <v>-3.0404534913682038</v>
-      </c>
-      <c r="K75">
-        <v>5.9</v>
-      </c>
-      <c r="L75">
-        <f t="shared" si="8"/>
-        <v>1.0136079540337544</v>
-      </c>
-      <c r="M75">
-        <f t="shared" si="9"/>
-        <v>0.16949152542372881</v>
-      </c>
-      <c r="N75">
-        <f>-1/(2*PI()*I75*K75)</f>
-        <v>-0.5395082816674418</v>
-      </c>
-    </row>
-    <row r="76" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I76">
-        <v>0.05</v>
-      </c>
-      <c r="J76">
-        <f>-(K76*I76)/($G$3^2+(I76*K76)^2)</f>
-        <v>-2.9999999999999996</v>
-      </c>
-      <c r="K76">
-        <v>6</v>
-      </c>
-      <c r="L76">
-        <f t="shared" si="8"/>
-        <v>1.0134844971227348</v>
-      </c>
-      <c r="M76">
-        <f t="shared" si="9"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="N76">
-        <f>-1/(2*PI()*I76*K76)</f>
-        <v>-0.53051647697298443</v>
-      </c>
-    </row>
-    <row r="77" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I77">
-        <v>0.05</v>
-      </c>
-      <c r="J77">
-        <f>-(K77*I77)/($G$3^2+(I77*K77)^2)</f>
-        <v>-2.9604464935695218</v>
-      </c>
-      <c r="K77">
-        <v>6.1</v>
-      </c>
-      <c r="L77">
-        <f t="shared" si="8"/>
-        <v>1.0133606557377048</v>
-      </c>
-      <c r="M77">
-        <f t="shared" si="9"/>
-        <v>0.16393442622950821</v>
-      </c>
-      <c r="N77">
-        <f>-1/(2*PI()*I77*K77)</f>
-        <v>-0.52181948554719793</v>
-      </c>
-    </row>
-    <row r="78" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I78">
-        <v>0.05</v>
-      </c>
-      <c r="J78">
-        <f>-(K78*I78)/($G$3^2+(I78*K78)^2)</f>
-        <v>-2.9217719132893496</v>
-      </c>
-      <c r="K78">
-        <v>6.2</v>
-      </c>
-      <c r="L78">
-        <f t="shared" si="8"/>
-        <v>1.0132366869926654</v>
-      </c>
-      <c r="M78">
-        <f t="shared" si="9"/>
-        <v>0.16129032258064516</v>
-      </c>
-      <c r="N78">
-        <f>-1/(2*PI()*I78*K78)</f>
-        <v>-0.51340304223192046</v>
-      </c>
-    </row>
-    <row r="79" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I79">
-        <v>0.05</v>
-      </c>
-      <c r="J79">
-        <f>-(K79*I79)/($G$3^2+(I79*K79)^2)</f>
-        <v>-2.8839551384756232</v>
-      </c>
-      <c r="K79">
-        <v>6.3</v>
-      </c>
-      <c r="L79">
-        <f t="shared" si="8"/>
-        <v>1.0131128166000929</v>
-      </c>
-      <c r="M79">
-        <f t="shared" si="9"/>
-        <v>0.15873015873015872</v>
-      </c>
-      <c r="N79">
-        <f>-1/(2*PI()*I79*K79)</f>
-        <v>-0.50525378759331852</v>
-      </c>
-    </row>
-    <row r="80" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I80">
-        <v>0.05</v>
-      </c>
-      <c r="J80">
-        <f>-(K80*I80)/($G$3^2+(I80*K80)^2)</f>
-        <v>-2.8469750889679708</v>
-      </c>
-      <c r="K80">
-        <v>6.4</v>
-      </c>
-      <c r="L80">
-        <f t="shared" si="8"/>
-        <v>1.012989242389563</v>
-      </c>
-      <c r="M80">
-        <f t="shared" si="9"/>
-        <v>0.15625</v>
-      </c>
-      <c r="N80">
-        <f>-1/(2*PI()*I80*K80)</f>
-        <v>-0.49735919716217292</v>
-      </c>
-    </row>
-    <row r="81" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I81">
-        <v>0.05</v>
-      </c>
-      <c r="J81">
-        <f>-(K81*I81)/($G$3^2+(I81*K81)^2)</f>
-        <v>-2.810810810810807</v>
-      </c>
-      <c r="K81">
-        <v>6.5000000000000098</v>
-      </c>
-      <c r="L81">
-        <f t="shared" si="8"/>
-        <v>1.0128661374212986</v>
-      </c>
-      <c r="M81">
-        <f t="shared" si="9"/>
-        <v>0.1538461538461536</v>
-      </c>
-      <c r="N81">
-        <f>-1/(2*PI()*I81*K81)</f>
-        <v>-0.48970751720583106</v>
-      </c>
+      <c r="C23">
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="E23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="D42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A83701-554A-49EA-BEFF-31A40D4F0692}">
-  <dimension ref="A1:E42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0230BEE9-3A29-384E-B52B-41AFA4A64EB2}">
+  <dimension ref="E1:Q81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B23"/>
+      <selection activeCell="O73" sqref="O73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="5:17">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="5:17">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="5:17">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.1</v>
+      </c>
+      <c r="H3">
+        <v>0.1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.05</v>
+      </c>
+      <c r="M3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="5:17">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0.05</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="5:17">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>0.1</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>0.05</v>
+      </c>
+      <c r="L5">
+        <v>0.05</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="5:17">
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="5:17">
+      <c r="F8" t="e">
+        <f>F3/(F3^2+K3^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:H10" si="0">G3/(G3^2+L3^2)</f>
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="J8" t="e">
+        <f>-K3/(F3^2+K3^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8">
+        <f>-L3/(G3^2+L3^2)</f>
+        <v>-3.9999999999999996</v>
+      </c>
+      <c r="L8">
+        <f>-M3/(H3^2+M3^2)</f>
+        <v>-3.9999999999999996</v>
+      </c>
+      <c r="M8" t="e">
+        <f t="shared" ref="K8:M10" si="1">-N3/(I3^2+N3^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8">
+        <v>0.05</v>
+      </c>
+      <c r="P8">
+        <v>-4</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="5:17">
+      <c r="F9">
+        <f t="shared" ref="F9:F10" si="2">F4/(F4^2+K4^2)</f>
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="G9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:J10" si="3">-K4/(F4^2+K4^2)</f>
+        <v>-3.9999999999999996</v>
+      </c>
+      <c r="K9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>-3.9999999999999996</v>
+      </c>
+      <c r="M9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O9">
+        <v>0.1</v>
+      </c>
+      <c r="P9">
+        <v>-5</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="5:17">
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>7.9999999999999991</v>
+      </c>
+      <c r="H10" t="e">
+        <f>H5/(H5^2+M5^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>-3.9999999999999996</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>-3.9999999999999996</v>
+      </c>
+      <c r="L10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10">
+        <v>0.2</v>
+      </c>
+      <c r="P10">
+        <v>-4</v>
+      </c>
+      <c r="Q10">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="11" spans="5:17">
+      <c r="O11">
+        <v>0.4</v>
+      </c>
+      <c r="P11">
+        <v>-2.355</v>
+      </c>
+      <c r="Q11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="5:17">
+      <c r="O12">
+        <v>0.8</v>
+      </c>
+      <c r="P12">
+        <v>-1.23</v>
+      </c>
+      <c r="Q12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="5:17">
+      <c r="O13">
+        <v>1.6</v>
+      </c>
+      <c r="P13">
+        <v>-0.622</v>
+      </c>
+      <c r="Q13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="5:17">
+      <c r="I16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="9:14">
+      <c r="I17">
+        <v>0.05</v>
+      </c>
+      <c r="J17">
+        <f>-(K17*I17)/($G$3^2+(I17*K17)^2)</f>
+        <v>-3.9999999999999996</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <f>-1/(2*PI()*I17*K17)</f>
+        <v>-3.183098861837907</v>
+      </c>
+    </row>
+    <row r="18" spans="9:14">
+      <c r="I18">
+        <v>0.05</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:J35" si="4">-(K18*I18)/($G$3^2+(I18*K18)^2)</f>
+        <v>-4.2226487523992322</v>
+      </c>
+      <c r="K18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L18">
+        <f>J17/J18</f>
+        <v>0.94727272727272716</v>
+      </c>
+      <c r="M18">
+        <f>1/K18</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="N18">
+        <f>-1/(2*PI()*I18*K18)</f>
+        <v>-2.8937262380344606</v>
+      </c>
+    </row>
+    <row r="19" spans="9:14">
+      <c r="I19">
+        <v>0.05</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>-4.4117647058823524</v>
+      </c>
+      <c r="K19">
+        <v>1.2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ref="L19:L35" si="5">J18/J19</f>
+        <v>0.95713371721049278</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19:M35" si="6">1/K19</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ref="N19:N35" si="7">-1/(2*PI()*I19*K19)</f>
+        <v>-2.6525823848649224</v>
+      </c>
+    </row>
+    <row r="20" spans="9:14">
+      <c r="I20">
+        <v>0.05</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>-4.5694200351493848</v>
+      </c>
+      <c r="K20">
+        <v>1.3</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="5"/>
+        <v>0.96549773755656099</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="6"/>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="7"/>
+        <v>-2.4485375860291589</v>
+      </c>
+    </row>
+    <row r="21" spans="9:14">
+      <c r="I21">
+        <v>0.05</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>-4.6979865771812079</v>
+      </c>
+      <c r="K21">
+        <v>1.4</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="5"/>
+        <v>0.97263369319608339</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="6"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="7"/>
+        <v>-2.2736420441699337</v>
+      </c>
+    </row>
+    <row r="22" spans="9:14">
+      <c r="I22">
+        <v>0.05</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>-4.8</v>
+      </c>
+      <c r="K22">
+        <v>1.5</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="5"/>
+        <v>0.97874720357941836</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="7"/>
+        <v>-2.1220659078919377</v>
+      </c>
+    </row>
+    <row r="23" spans="9:14">
+      <c r="I23">
+        <v>0.05</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>-4.8780487804878048</v>
+      </c>
+      <c r="K23">
+        <v>1.6</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="5"/>
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="6"/>
+        <v>0.625</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="7"/>
+        <v>-1.9894367886486917</v>
+      </c>
+    </row>
+    <row r="24" spans="9:14">
+      <c r="I24">
+        <v>0.05</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>-4.9346879535558772</v>
+      </c>
+      <c r="K24">
+        <v>1.7</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="5"/>
+        <v>0.98852223816355822</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="6"/>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="7"/>
+        <v>-1.8724110951987689</v>
+      </c>
+    </row>
+    <row r="25" spans="9:14">
+      <c r="I25">
+        <v>0.05</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>-4.9723756906077341</v>
+      </c>
+      <c r="K25">
+        <v>1.8</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="5"/>
+        <v>0.99242057732623767</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="6"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="7"/>
+        <v>-1.7683882565766149</v>
+      </c>
+    </row>
+    <row r="26" spans="9:14">
+      <c r="I26">
+        <v>0.05</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>-4.9934296977660972</v>
+      </c>
+      <c r="K26">
+        <v>1.9</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="5"/>
+        <v>0.99578365804012781</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="6"/>
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="7"/>
+        <v>-1.6753151904410037</v>
+      </c>
+    </row>
+    <row r="27" spans="9:14">
+      <c r="I27">
+        <v>0.05</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>-4.9947045671473953</v>
+      </c>
+      <c r="K27">
+        <v>1.91</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="5"/>
+        <v>0.9997447557980339</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="6"/>
+        <v>0.52356020942408377</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="7"/>
+        <v>-1.6665439067214172</v>
+      </c>
+    </row>
+    <row r="28" spans="9:14">
+      <c r="I28">
+        <v>0.05</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>-4.9958368026644457</v>
+      </c>
+      <c r="K28">
+        <v>1.92</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="5"/>
+        <v>0.99977336419067042</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="6"/>
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="7"/>
+        <v>-1.6578639905405765</v>
+      </c>
+    </row>
+    <row r="29" spans="9:14">
+      <c r="I29">
+        <v>0.05</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>-4.9968284379085803</v>
+      </c>
+      <c r="K29">
+        <v>1.93</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="5"/>
+        <v>0.99980154707001512</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="6"/>
+        <v>0.5181347150259068</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="7"/>
+        <v>-1.6492740216776718</v>
+      </c>
+    </row>
+    <row r="30" spans="9:14">
+      <c r="I30">
+        <v>0.05</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>-4.9976814879694977</v>
+      </c>
+      <c r="K30">
+        <v>1.94</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="5"/>
+        <v>0.99982931083884174</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="6"/>
+        <v>0.51546391752577325</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="7"/>
+        <v>-1.6407726091947974</v>
+      </c>
+    </row>
+    <row r="31" spans="9:14">
+      <c r="I31">
+        <v>0.05</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>-4.9983979493751995</v>
+      </c>
+      <c r="K31">
+        <v>1.95</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="5"/>
+        <v>0.9998566617918464</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="6"/>
+        <v>0.51282051282051289</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="7"/>
+        <v>-1.6323583906861061</v>
+      </c>
+    </row>
+    <row r="32" spans="9:14">
+      <c r="I32">
+        <v>0.05</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>-4.9989798000408072</v>
+      </c>
+      <c r="K32">
+        <v>1.96</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="5"/>
+        <v>0.99988360611787175</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="6"/>
+        <v>0.51020408163265307</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="7"/>
+        <v>-1.6240300315499525</v>
+      </c>
+    </row>
+    <row r="33" spans="9:14">
+      <c r="I33">
+        <v>0.05</v>
+      </c>
+      <c r="J33">
+        <f>-(K33*I33)/($G$3^2+(I33*K33)^2)</f>
+        <v>-4.9994289992259757</v>
+      </c>
+      <c r="K33">
+        <v>1.97</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="5"/>
+        <v>0.99991014990207117</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="6"/>
+        <v>0.50761421319796951</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="7"/>
+        <v>-1.6157862242832013</v>
+      </c>
+    </row>
+    <row r="34" spans="9:14">
+      <c r="I34">
+        <v>0.05</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>-4.9997474875006311</v>
+      </c>
+      <c r="K34">
+        <v>1.98</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="5"/>
+        <v>0.99993629912801563</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="6"/>
+        <v>0.50505050505050508</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="7"/>
+        <v>-1.6076256877969228</v>
+      </c>
+    </row>
+    <row r="35" spans="9:14">
+      <c r="I35">
+        <v>0.05</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>-4.9999371867187596</v>
+      </c>
+      <c r="K35">
+        <v>1.99</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="5"/>
+        <v>0.99996205967974305</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="6"/>
+        <v>0.50251256281407031</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="7"/>
+        <v>-1.599547166752717</v>
+      </c>
+    </row>
+    <row r="36" spans="9:14">
+      <c r="I36">
+        <v>0.05</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ref="J36:J81" si="8">-(K36*I36)/($G$3^2+(I36*K36)^2)</f>
+        <v>-4.9999999999999991</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <f>J35/J36</f>
+        <v>0.99998743734375206</v>
+      </c>
+      <c r="M36">
+        <f>1/K36</f>
+        <v>0.5</v>
+      </c>
+      <c r="N36">
+        <f t="shared" ref="N36:N81" si="9">-1/(2*PI()*I36*K36)</f>
+        <v>-1.5915494309189535</v>
+      </c>
+    </row>
+    <row r="37" spans="9:14">
+      <c r="I37">
+        <v>0.05</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="8"/>
+        <v>-4.9940546967895365</v>
+      </c>
+      <c r="K37">
+        <v>2.1</v>
+      </c>
+      <c r="L37">
+        <f t="shared" ref="L37:L81" si="10">J36/J37</f>
+        <v>1.001190476190476</v>
+      </c>
+      <c r="M37">
+        <f t="shared" ref="M37:M81" si="11">1/K37</f>
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="9"/>
+        <v>-1.5157613627799555</v>
+      </c>
+    </row>
+    <row r="38" spans="9:14">
+      <c r="I38">
+        <v>0.05</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="8"/>
+        <v>-4.9773755656108589</v>
+      </c>
+      <c r="K38">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="10"/>
+        <v>1.0033509890822616</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="11"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="9"/>
+        <v>-1.4468631190172303</v>
+      </c>
+    </row>
+    <row r="39" spans="9:14">
+      <c r="I39">
+        <v>0.05</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="8"/>
+        <v>-4.9515608180839612</v>
+      </c>
+      <c r="K39">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="10"/>
+        <v>1.0052134566201061</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="11"/>
+        <v>0.43478260869565222</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="9"/>
+        <v>-1.3839560268860467</v>
+      </c>
+    </row>
+    <row r="40" spans="9:14">
+      <c r="I40">
+        <v>0.05</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="8"/>
+        <v>-4.9180327868852451</v>
+      </c>
+      <c r="K40">
+        <v>2.4</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="10"/>
+        <v>1.006817366343739</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="11"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="9"/>
+        <v>-1.3262911924324612</v>
+      </c>
+    </row>
+    <row r="41" spans="9:14">
+      <c r="I41">
+        <v>0.05</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="8"/>
+        <v>-4.8780487804878048</v>
+      </c>
+      <c r="K41">
+        <v>2.5</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="10"/>
+        <v>1.0081967213114753</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="11"/>
+        <v>0.4</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="9"/>
+        <v>-1.2732395447351628</v>
+      </c>
+    </row>
+    <row r="42" spans="9:14">
+      <c r="I42">
+        <v>0.05</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="8"/>
+        <v>-4.8327137546468393</v>
+      </c>
+      <c r="K42">
+        <v>2.6</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="10"/>
+        <v>1.0093808630393999</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="11"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="9"/>
+        <v>-1.2242687930145795</v>
+      </c>
+    </row>
+    <row r="43" spans="9:14">
+      <c r="I43">
+        <v>0.05</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="8"/>
+        <v>-4.7829937998228518</v>
+      </c>
+      <c r="K43">
+        <v>2.7</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="10"/>
+        <v>1.0103951535178299</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="11"/>
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="9"/>
+        <v>-1.1789255043844098</v>
+      </c>
+    </row>
+    <row r="44" spans="9:14">
+      <c r="I44">
+        <v>0.05</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="8"/>
+        <v>-4.7297297297297298</v>
+      </c>
+      <c r="K44">
+        <v>2.8</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="10"/>
+        <v>1.0112615462482601</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="11"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="9"/>
+        <v>-1.1368210220849668</v>
+      </c>
+    </row>
+    <row r="45" spans="9:14">
+      <c r="I45">
+        <v>0.05</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="8"/>
+        <v>-4.6736502820306205</v>
+      </c>
+      <c r="K45">
+        <v>2.9</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="10"/>
+        <v>1.0119990680335509</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="11"/>
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="9"/>
+        <v>-1.0976202971854851</v>
+      </c>
+    </row>
+    <row r="46" spans="9:14">
+      <c r="I46">
+        <v>0.05</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="8"/>
+        <v>-4.615384615384615</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="10"/>
+        <v>1.0126242277733013</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="11"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="9"/>
+        <v>-1.0610329539459689</v>
+      </c>
+    </row>
+    <row r="47" spans="9:14">
+      <c r="I47">
+        <v>0.05</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="8"/>
+        <v>-4.5554739162380589</v>
+      </c>
+      <c r="K47">
+        <v>3.1</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="10"/>
+        <v>1.0131513647642683</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="11"/>
+        <v>0.32258064516129031</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="9"/>
+        <v>-1.0268060844638409</v>
+      </c>
+    </row>
+    <row r="48" spans="9:14">
+      <c r="I48">
+        <v>0.05</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="8"/>
+        <v>-4.4943820224719095</v>
+      </c>
+      <c r="K48">
+        <v>3.2</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="10"/>
+        <v>1.0135929463629683</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="11"/>
+        <v>0.3125</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="9"/>
+        <v>-0.99471839432434583</v>
+      </c>
+    </row>
+    <row r="49" spans="9:14">
+      <c r="I49">
+        <v>0.05</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="8"/>
+        <v>-4.4325050369375409</v>
+      </c>
+      <c r="K49">
+        <v>3.3</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="10"/>
+        <v>1.0139598229485871</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="11"/>
+        <v>0.30303030303030304</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="9"/>
+        <v>-0.96457541267815372</v>
+      </c>
+    </row>
+    <row r="50" spans="9:14">
+      <c r="I50">
+        <v>0.05</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="8"/>
+        <v>-4.3701799485861184</v>
+      </c>
+      <c r="K50">
+        <v>3.4</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="10"/>
+        <v>1.0142614466874726</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="11"/>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="9"/>
+        <v>-0.93620554759938446</v>
+      </c>
+    </row>
+    <row r="51" spans="9:14">
+      <c r="I51">
+        <v>0.05</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="8"/>
+        <v>-4.3076923076923075</v>
+      </c>
+      <c r="K51">
+        <v>3.5</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="10"/>
+        <v>1.014506059493206</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="11"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="9"/>
+        <v>-0.90945681766797337</v>
+      </c>
+    </row>
+    <row r="52" spans="9:14">
+      <c r="I52">
+        <v>0.05</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="8"/>
+        <v>-4.2452830188679247</v>
+      </c>
+      <c r="K52">
+        <v>3.6</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="10"/>
+        <v>1.0147008547008547</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="11"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="9"/>
+        <v>-0.88419412828830746</v>
+      </c>
+    </row>
+    <row r="53" spans="9:14">
+      <c r="I53">
+        <v>0.05</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="8"/>
+        <v>-4.1831543244771048</v>
+      </c>
+      <c r="K53">
+        <v>3.7</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="10"/>
+        <v>1.0148521162672108</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="11"/>
+        <v>0.27027027027027023</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="9"/>
+        <v>-0.86029698968592072</v>
+      </c>
+    </row>
+    <row r="54" spans="9:14">
+      <c r="I54">
+        <v>0.05</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="8"/>
+        <v>-4.1214750542299345</v>
+      </c>
+      <c r="K54">
+        <v>3.8</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="10"/>
+        <v>1.0149653387283923</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="11"/>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="9"/>
+        <v>-0.83765759522050187</v>
+      </c>
+    </row>
+    <row r="55" spans="9:14">
+      <c r="I55">
+        <v>0.05</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="8"/>
+        <v>-4.0603852160333158</v>
+      </c>
+      <c r="K55">
+        <v>3.9</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="10"/>
+        <v>1.0150453306635518</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="11"/>
+        <v>0.25641025641025644</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="9"/>
+        <v>-0.81617919534305305</v>
+      </c>
+    </row>
+    <row r="56" spans="9:14">
+      <c r="I56">
+        <v>0.05</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="8"/>
+        <v>-3.9999999999999996</v>
+      </c>
+      <c r="K56">
+        <v>4</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="10"/>
+        <v>1.0150963040083292</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="11"/>
+        <v>0.25</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="9"/>
+        <v>-0.79577471545947676</v>
+      </c>
+    </row>
+    <row r="57" spans="9:14">
+      <c r="I57">
+        <v>0.05</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="8"/>
+        <v>-3.9404132628543969</v>
+      </c>
+      <c r="K57">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="10"/>
+        <v>1.0151219512195122</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="11"/>
+        <v>0.24390243902439027</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="9"/>
+        <v>-0.77636557605802614</v>
+      </c>
+    </row>
+    <row r="58" spans="9:14">
+      <c r="I58">
+        <v>0.05</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="8"/>
+        <v>-3.8817005545286505</v>
+      </c>
+      <c r="K58">
+        <v>4.2</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="10"/>
+        <v>1.0151255120020137</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="11"/>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="9"/>
+        <v>-0.75788068138997777</v>
+      </c>
+    </row>
+    <row r="59" spans="9:14">
+      <c r="I59">
+        <v>0.05</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="8"/>
+        <v>-3.8239217429968875</v>
+      </c>
+      <c r="K59">
+        <v>4.3</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="10"/>
+        <v>1.0151098310622018</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="11"/>
+        <v>0.23255813953488372</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="9"/>
+        <v>-0.74025554926462955</v>
+      </c>
+    </row>
+    <row r="60" spans="9:14">
+      <c r="I60">
+        <v>0.05</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="8"/>
+        <v>-3.7671232876712324</v>
+      </c>
+      <c r="K60">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="10"/>
+        <v>1.0150774081409921</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="11"/>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="9"/>
+        <v>-0.72343155950861515</v>
+      </c>
+    </row>
+    <row r="61" spans="9:14">
+      <c r="I61">
+        <v>0.05</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="8"/>
+        <v>-3.7113402061855667</v>
+      </c>
+      <c r="K61">
+        <v>4.5</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="10"/>
+        <v>1.0150304414003044</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="11"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="9"/>
+        <v>-0.70735530263064594</v>
+      </c>
+    </row>
+    <row r="62" spans="9:14">
+      <c r="I62">
+        <v>0.05</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="8"/>
+        <v>-3.6565977742448337</v>
+      </c>
+      <c r="K62">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="10"/>
+        <v>1.0149708650829221</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="11"/>
+        <v>0.21739130434782611</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="9"/>
+        <v>-0.69197801344302334</v>
+      </c>
+    </row>
+    <row r="63" spans="9:14">
+      <c r="I63">
+        <v>0.05</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="8"/>
+        <v>-3.6029129934840936</v>
+      </c>
+      <c r="K63">
+        <v>4.7</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="10"/>
+        <v>1.0149003822345501</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="11"/>
+        <v>0.21276595744680851</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="9"/>
+        <v>-0.67725507698678866</v>
+      </c>
+    </row>
+    <row r="64" spans="9:14">
+      <c r="I64">
+        <v>0.05</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="8"/>
+        <v>-3.550295857988166</v>
+      </c>
+      <c r="K64">
+        <v>4.8</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="10"/>
+        <v>1.0148204931646863</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="11"/>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="9"/>
+        <v>-0.66314559621623059</v>
+      </c>
+    </row>
+    <row r="65" spans="9:14">
+      <c r="I65">
+        <v>0.05</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="8"/>
+        <v>-3.4987504462691899</v>
+      </c>
+      <c r="K65">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="10"/>
+        <v>1.0147325202270256</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="11"/>
+        <v>0.2040816326530612</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="9"/>
+        <v>-0.64961201261998092</v>
+      </c>
+    </row>
+    <row r="66" spans="9:14">
+      <c r="I66">
+        <v>0.05</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="8"/>
+        <v>-3.4482758620689653</v>
+      </c>
+      <c r="K66">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L66">
+        <f t="shared" si="10"/>
+        <v>1.014637629418065</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="11"/>
+        <v>0.2</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="9"/>
+        <v>-0.63661977236758138</v>
+      </c>
+    </row>
+    <row r="67" spans="9:14">
+      <c r="I67">
+        <v>0.05</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="8"/>
+        <v>-3.39886704431856</v>
+      </c>
+      <c r="K67">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="10"/>
+        <v>1.0145368492224476</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="11"/>
+        <v>0.19607843137254904</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="9"/>
+        <v>-0.62413703173292301</v>
+      </c>
+    </row>
+    <row r="68" spans="9:14">
+      <c r="I68">
+        <v>0.05</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="8"/>
+        <v>-3.3505154639175259</v>
+      </c>
+      <c r="K68">
+        <v>5.2</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="10"/>
+        <v>1.0144310870735394</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="11"/>
+        <v>0.19230769230769229</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="9"/>
+        <v>-0.61213439650728974</v>
+      </c>
+    </row>
+    <row r="69" spans="9:14">
+      <c r="I69">
+        <v>0.05</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="8"/>
+        <v>-3.3032097226550321</v>
+      </c>
+      <c r="K69">
+        <v>5.3</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="10"/>
+        <v>1.0143211437463531</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="11"/>
+        <v>0.18867924528301888</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="9"/>
+        <v>-0.60058469091281264</v>
+      </c>
+    </row>
+    <row r="70" spans="9:14">
+      <c r="I70">
+        <v>0.05</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="8"/>
+        <v>-3.2569360675512669</v>
+      </c>
+      <c r="K70">
+        <v>5.4</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="10"/>
+        <v>1.0142077259559339</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="11"/>
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="9"/>
+        <v>-0.5894627521922049</v>
+      </c>
+    </row>
+    <row r="71" spans="9:14">
+      <c r="I71">
+        <v>0.05</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="8"/>
+        <v>-3.2116788321167884</v>
+      </c>
+      <c r="K71">
+        <v>5.5</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="10"/>
+        <v>1.0140914573966444</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="11"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="9"/>
+        <v>-0.57874524760689217</v>
+      </c>
+    </row>
+    <row r="72" spans="9:14">
+      <c r="I72">
+        <v>0.05</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="8"/>
+        <v>-3.1674208144796383</v>
+      </c>
+      <c r="K72">
+        <v>5.6</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="10"/>
+        <v>1.0139728884254431</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="11"/>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="9"/>
+        <v>-0.56841051104248341</v>
+      </c>
+    </row>
+    <row r="73" spans="9:14">
+      <c r="I73">
+        <v>0.05</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="8"/>
+        <v>-3.1241436009865708</v>
+      </c>
+      <c r="K73">
+        <v>5.7</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="10"/>
+        <v>1.0138525045645792</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="11"/>
+        <v>0.17543859649122806</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="9"/>
+        <v>-0.5584383968136678</v>
+      </c>
+    </row>
+    <row r="74" spans="9:14">
+      <c r="I74">
+        <v>0.05</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="8"/>
+        <v>-3.0818278427205104</v>
+      </c>
+      <c r="K74">
+        <v>5.8</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="10"/>
+        <v>1.0137307339752974</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="11"/>
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="9"/>
+        <v>-0.54881014859274257</v>
+      </c>
+    </row>
+    <row r="75" spans="9:14">
+      <c r="I75">
+        <v>0.05</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="8"/>
+        <v>-3.0404534913682038</v>
+      </c>
+      <c r="K75">
+        <v>5.9</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="10"/>
+        <v>1.0136079540337544</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="11"/>
+        <v>0.16949152542372881</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="9"/>
+        <v>-0.5395082816674418</v>
+      </c>
+    </row>
+    <row r="76" spans="9:14">
+      <c r="I76">
+        <v>0.05</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="8"/>
+        <v>-2.9999999999999996</v>
+      </c>
+      <c r="K76">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3.9999999999999996</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="E2">
-        <v>-1.9999999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>4.7058823529411757</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="E3">
-        <v>-1.1764705882352939</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>3.1120331950207469</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="E4">
-        <v>-0.82987551867219922</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>3.9999999999999996</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="E5">
-        <v>-1.9999999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>3.8461538461538458</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E6">
-        <v>-0.76923076923076927</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>7.9999999999999991</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="E7">
-        <v>-3.9999999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>2.9999999999999996</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="E8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>4.4543429844097986</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="E9">
-        <v>-1.5590200445434297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>3.8461538461538458</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="E10">
-        <v>-0.76923076923076927</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>3.1707317073170733</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="E11">
-        <v>-1.4634146341463414</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>9.615384615384615</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="E12">
-        <v>-1.9230769230769229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>4.7058823529411757</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E13">
-        <v>-1.1764705882352939</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>7.9999999999999991</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="E14">
-        <v>-3.9999999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>1.9999999999999998</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="E15">
-        <v>-0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>3.1120331950207469</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="E16">
-        <v>-0.82987551867219922</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>2.9999999999999996</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>3.1707317073170733</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="E18">
-        <v>-1.4634146341463414</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>1.9999999999999998</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="E19">
-        <v>-0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <v>2.9999999999999996</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>6</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>4.4543429844097986</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E21">
-        <v>-1.5590200445434297</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>6</v>
-      </c>
-      <c r="B22" s="1">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>1.9999999999999998</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="E22">
-        <v>-3.9999999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>6</v>
-      </c>
-      <c r="B23" s="1">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>2.9999999999999996</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="E23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="L76">
+        <f t="shared" si="10"/>
+        <v>1.0134844971227348</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="11"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="9"/>
+        <v>-0.53051647697298443</v>
+      </c>
+    </row>
+    <row r="77" spans="9:14">
+      <c r="I77">
+        <v>0.05</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="8"/>
+        <v>-2.9604464935695218</v>
+      </c>
+      <c r="K77">
+        <v>6.1</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="10"/>
+        <v>1.0133606557377048</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="11"/>
+        <v>0.16393442622950821</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="9"/>
+        <v>-0.52181948554719793</v>
+      </c>
+    </row>
+    <row r="78" spans="9:14">
+      <c r="I78">
+        <v>0.05</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="8"/>
+        <v>-2.9217719132893496</v>
+      </c>
+      <c r="K78">
+        <v>6.2</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="10"/>
+        <v>1.0132366869926654</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="11"/>
+        <v>0.16129032258064516</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="9"/>
+        <v>-0.51340304223192046</v>
+      </c>
+    </row>
+    <row r="79" spans="9:14">
+      <c r="I79">
+        <v>0.05</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="8"/>
+        <v>-2.8839551384756232</v>
+      </c>
+      <c r="K79">
+        <v>6.3</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="10"/>
+        <v>1.0131128166000929</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="11"/>
+        <v>0.15873015873015872</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="9"/>
+        <v>-0.50525378759331852</v>
+      </c>
+    </row>
+    <row r="80" spans="9:14">
+      <c r="I80">
+        <v>0.05</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="8"/>
+        <v>-2.8469750889679708</v>
+      </c>
+      <c r="K80">
+        <v>6.4</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="10"/>
+        <v>1.012989242389563</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="11"/>
+        <v>0.15625</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="9"/>
+        <v>-0.49735919716217292</v>
+      </c>
+    </row>
+    <row r="81" spans="9:14">
+      <c r="I81">
+        <v>0.05</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="8"/>
+        <v>-2.810810810810807</v>
+      </c>
+      <c r="K81">
+        <v>6.5000000000000098</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="10"/>
+        <v>1.0128661374212986</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="11"/>
+        <v>0.1538461538461536</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="9"/>
+        <v>-0.48970751720583106</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3958,12 +3958,12 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H23"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>4.7058823529411802</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>3.11203319502075</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>3.8461538461538498</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>4.4543429844098004</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>3.8461538461538498</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>3.1707317073170702</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>9.6153846153846096</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>4.7058823529411802</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>3.11203319502075</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>3.1707317073170702</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>6</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>4.4543429844098004</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -4847,148 +4847,148 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
@@ -4998,6 +4998,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA6FEDBE726A3D4BB6A3DD1FC423C645" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5b46a3744ab63b46ac8390338c0ec29">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e1685e70-4409-44ff-a129-d9557ed9b25b" xmlns:ns4="dd78913b-84cb-4e23-9d1e-766268695023" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="101e21a860029da8357ea7a2996377f6" ns3:_="" ns4:_="">
     <xsd:import namespace="e1685e70-4409-44ff-a129-d9557ed9b25b"/>
@@ -5208,22 +5223,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F22E367B-3987-45E2-9C94-F1D93CDCEDA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="e1685e70-4409-44ff-a129-d9557ed9b25b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="dd78913b-84cb-4e23-9d1e-766268695023"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC684770-FBB1-48C7-813E-0130852B6127}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5295C7A2-8A6E-4C6B-A9EC-7FF17D31CF74}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5240,29 +5265,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC684770-FBB1-48C7-813E-0130852B6127}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F22E367B-3987-45E2-9C94-F1D93CDCEDA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="e1685e70-4409-44ff-a129-d9557ed9b25b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="dd78913b-84cb-4e23-9d1e-766268695023"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/secData2.xlsx
+++ b/secData2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\python-optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C2FAED-744F-452E-9C59-72B1CEF79EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C4E363-3CA3-421A-8EB5-5642DE43B79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1725" windowWidth="21600" windowHeight="13620" activeTab="1" xr2:uid="{D481F55A-4EF9-4804-9C01-9BC1232C6DB2}"/>
+    <workbookView xWindow="2640" yWindow="1725" windowWidth="21600" windowHeight="13620" xr2:uid="{D481F55A-4EF9-4804-9C01-9BC1232C6DB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF68B899-B517-4C06-B6AA-6DDDB06CF28F}">
   <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -703,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -714,7 +714,7 @@
       </c>
       <c r="Q3" s="9">
         <f>I3*0.6</f>
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
@@ -739,7 +739,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="9">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -750,7 +750,7 @@
       </c>
       <c r="Q4" s="9">
         <f t="shared" ref="Q4:Q8" si="0">I4*0.6</f>
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
@@ -773,7 +773,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -784,7 +784,7 @@
       </c>
       <c r="Q5" s="9">
         <f t="shared" si="0"/>
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
@@ -807,7 +807,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="9">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -818,7 +818,7 @@
       </c>
       <c r="Q6" s="9">
         <f t="shared" si="0"/>
-        <v>0.54</v>
+        <v>0.12</v>
       </c>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="9">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -846,7 +846,7 @@
       </c>
       <c r="Q7" s="9">
         <f>I7*0.6</f>
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
@@ -862,7 +862,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="16">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
@@ -873,7 +873,7 @@
       </c>
       <c r="Q8" s="16">
         <f t="shared" si="0"/>
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
@@ -1157,7 +1157,7 @@
         <v>5</v>
       </c>
       <c r="L16" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="5">
         <v>5</v>
@@ -1595,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A83701-554A-49EA-BEFF-31A40D4F0692}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3958,7 +3958,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4998,21 +4998,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA6FEDBE726A3D4BB6A3DD1FC423C645" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5b46a3744ab63b46ac8390338c0ec29">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e1685e70-4409-44ff-a129-d9557ed9b25b" xmlns:ns4="dd78913b-84cb-4e23-9d1e-766268695023" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="101e21a860029da8357ea7a2996377f6" ns3:_="" ns4:_="">
     <xsd:import namespace="e1685e70-4409-44ff-a129-d9557ed9b25b"/>
@@ -5223,32 +5208,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F22E367B-3987-45E2-9C94-F1D93CDCEDA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="e1685e70-4409-44ff-a129-d9557ed9b25b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="dd78913b-84cb-4e23-9d1e-766268695023"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC684770-FBB1-48C7-813E-0130852B6127}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5295C7A2-8A6E-4C6B-A9EC-7FF17D31CF74}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5265,4 +5240,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC684770-FBB1-48C7-813E-0130852B6127}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F22E367B-3987-45E2-9C94-F1D93CDCEDA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="e1685e70-4409-44ff-a129-d9557ed9b25b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="dd78913b-84cb-4e23-9d1e-766268695023"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>